--- a/magic_item_tables.xlsx
+++ b/magic_item_tables.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wf515e\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dave_\Documents\DND tool\dnd_random_generation_tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9CDDB5-340D-4460-9E31-CF37697087BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="8" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table A" sheetId="1" r:id="rId1"/>
@@ -26,6 +27,8 @@
     <sheet name="Armor" sheetId="12" r:id="rId12"/>
     <sheet name="Weapons" sheetId="13" r:id="rId13"/>
     <sheet name="Ammunition" sheetId="14" r:id="rId14"/>
+    <sheet name="Gems" sheetId="15" r:id="rId15"/>
+    <sheet name="Art Objects" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="530">
   <si>
     <t>Potion of Healing</t>
   </si>
@@ -1324,16 +1327,332 @@
   </si>
   <si>
     <t>Staff of the Magi</t>
+  </si>
+  <si>
+    <t>–</t>
+  </si>
+  <si>
+    <t>Ruby (transparent clear red to deep crimson)</t>
+  </si>
+  <si>
+    <t>Star ruby (translucent ruby with white star-shaped center)</t>
+  </si>
+  <si>
+    <t>Topaz (transparent golden yellow)</t>
+  </si>
+  <si>
+    <t>Zircon (transparent pale blue-green)</t>
+  </si>
+  <si>
+    <t>Turquoise (opaque light blue-green)</t>
+  </si>
+  <si>
+    <t>Jacinth (transparent fiery orange)</t>
+  </si>
+  <si>
+    <t>Fire opal (translucent fiery red)</t>
+  </si>
+  <si>
+    <t>Peridot (transparent rich olive green)</t>
+  </si>
+  <si>
+    <t>Star rose quartz (translucent rosy stone with white star-shaped center)</t>
+  </si>
+  <si>
+    <t>Tiger eye (translucent brown with golden center)</t>
+  </si>
+  <si>
+    <t>Diamond (transparent blue-white, canary, pink, brown, or blue)</t>
+  </si>
+  <si>
+    <t>Emerald (transparent deep bright green)</t>
+  </si>
+  <si>
+    <t>Blue spinel (transparent deep blue)</t>
+  </si>
+  <si>
+    <t>Sardonyx (opaque bands of red and white)</t>
+  </si>
+  <si>
+    <t>Rhodochrosite (opaque light pink)</t>
+  </si>
+  <si>
+    <t>Black sapphire (translucent lustrous black with glowing highlights)</t>
+  </si>
+  <si>
+    <t>Blue sapphire (transparent blue-white to medium blue)</t>
+  </si>
+  <si>
+    <t>Black pearl (opaque pure black)</t>
+  </si>
+  <si>
+    <t>Quartz (transparent white, smoky gray, or yellow)</t>
+  </si>
+  <si>
+    <t>Obsidian (opaque black)</t>
+  </si>
+  <si>
+    <t>Yellow sapphire (transparent fiery yellow or yellow green)</t>
+  </si>
+  <si>
+    <t>Aquamarine (transparent pale blue-green)</t>
+  </si>
+  <si>
+    <t>Onyx (opaque bands of black and white, or pure black or white)</t>
+  </si>
+  <si>
+    <t>Moss agate (translucent pink or yellow-white with mossy gray or green markings)</t>
+  </si>
+  <si>
+    <t>Star sapphire (translucent blue sapphire with white star-shaped center)</t>
+  </si>
+  <si>
+    <t>Alexandrite (transparent dark green)</t>
+  </si>
+  <si>
+    <t>Moonstone (translucent white with pale blue glow)</t>
+  </si>
+  <si>
+    <t>Malachite (opaque striated light and dark green)</t>
+  </si>
+  <si>
+    <t>Jasper (opaque blue, black, or brown)</t>
+  </si>
+  <si>
+    <t>Lapis lazuli (opaque light and dark blue with yellow flecks)</t>
+  </si>
+  <si>
+    <t>Opal (translucent pale blue with green and golden mottling)</t>
+  </si>
+  <si>
+    <t>Citrine (transparent pale yellow-brown)</t>
+  </si>
+  <si>
+    <t>Hematite (opaque gray-black)</t>
+  </si>
+  <si>
+    <t>Chrysoprase (translucent green)</t>
+  </si>
+  <si>
+    <t>Eye agate (translucent circles of gray, white, brown, blue, or green)</t>
+  </si>
+  <si>
+    <t>Chalcedony (opaque white)</t>
+  </si>
+  <si>
+    <t>Blue quartz (transparent pale blue)</t>
+  </si>
+  <si>
+    <t>Carnelian (opaque orange to red-brown)</t>
+  </si>
+  <si>
+    <t>Banded agate (translucent striped brown, blue, white, or red)</t>
+  </si>
+  <si>
+    <t>Black opal (translucent dark green with black mottling and golden flecks)</t>
+  </si>
+  <si>
+    <t>Bloodstone (opaque dark gray with red flecks)</t>
+  </si>
+  <si>
+    <t>Azurite (opaque mottled deep blue)</t>
+  </si>
+  <si>
+    <t>5000 GP</t>
+  </si>
+  <si>
+    <t>1000 GP</t>
+  </si>
+  <si>
+    <t>500 GP</t>
+  </si>
+  <si>
+    <t>50 GP</t>
+  </si>
+  <si>
+    <t>10 GP</t>
+  </si>
+  <si>
+    <t>A necklace string of small pink pearls</t>
+  </si>
+  <si>
+    <t>Painted gold war mask</t>
+  </si>
+  <si>
+    <t>Gold bird cage with electrum filigree</t>
+  </si>
+  <si>
+    <t>Gold locket with a painted portrait inside</t>
+  </si>
+  <si>
+    <t>Eye patch with a mock eye set in blue sapphire andmoonstone</t>
+  </si>
+  <si>
+    <t>Obsidian statuette with gold fittings and inlay</t>
+  </si>
+  <si>
+    <t>Box of turquoise animal figurines</t>
+  </si>
+  <si>
+    <t>Embroidered silk handkerchief</t>
+  </si>
+  <si>
+    <t>Bejeweled ivory drinking horn with gold filigree</t>
+  </si>
+  <si>
+    <t>Gold circlet set with four aquamarines</t>
+  </si>
+  <si>
+    <t>Silver and gold brooch</t>
+  </si>
+  <si>
+    <t>Brass mug with jade inlay</t>
+  </si>
+  <si>
+    <t>Small mirror set in a painted wooden frame</t>
+  </si>
+  <si>
+    <t>Jade game board with solid gold playing pieces</t>
+  </si>
+  <si>
+    <t>Gold music box</t>
+  </si>
+  <si>
+    <t>Ceremonial electrum dagger with a black pearl in the pommel</t>
+  </si>
+  <si>
+    <t>Large well-made tapestry</t>
+  </si>
+  <si>
+    <t>Pair of engraved bone dice</t>
+  </si>
+  <si>
+    <t>Painted gold child's sarcophagus</t>
+  </si>
+  <si>
+    <t>Jeweled anklet</t>
+  </si>
+  <si>
+    <t>Bottle stopper cork embossed with gold leaf and set with amethysts</t>
+  </si>
+  <si>
+    <t>Silk robe with gold embroidery</t>
+  </si>
+  <si>
+    <t>Copper chalice with silver filigree</t>
+  </si>
+  <si>
+    <t>Gold jewelry box with platinum filigree</t>
+  </si>
+  <si>
+    <t>Embroidered glove set with jewel chips</t>
+  </si>
+  <si>
+    <t>Gold dragon comb set with red garnets as eyes</t>
+  </si>
+  <si>
+    <t>Bronze crown</t>
+  </si>
+  <si>
+    <t>Black velvet mask stitched with silver thread</t>
+  </si>
+  <si>
+    <t>Gold cup set with emeralds</t>
+  </si>
+  <si>
+    <t>Platinum bracelet set with a sapphire</t>
+  </si>
+  <si>
+    <t>Small gold idol</t>
+  </si>
+  <si>
+    <t>Silver necklace with a gemstone pendant</t>
+  </si>
+  <si>
+    <t>Cloth-of-gold vestments</t>
+  </si>
+  <si>
+    <t>Small gold statuette set with rubies</t>
+  </si>
+  <si>
+    <t>Embroidered silk and velvet mantle set with numerous moonstones</t>
+  </si>
+  <si>
+    <t>Carved harp of exotic wood with ivory inlay and zircon gems</t>
+  </si>
+  <si>
+    <t>Large gold bracelet</t>
+  </si>
+  <si>
+    <t>Small gold bracelet</t>
+  </si>
+  <si>
+    <t>Jeweled platinum ring</t>
+  </si>
+  <si>
+    <t>Old masterpiece painting</t>
+  </si>
+  <si>
+    <t>Silver-plated steellongsword with jet set in hilt</t>
+  </si>
+  <si>
+    <t>Carved ivory statuette</t>
+  </si>
+  <si>
+    <t>Carved bone statuette</t>
+  </si>
+  <si>
+    <t>Jeweled gold crown</t>
+  </si>
+  <si>
+    <t>Fine gold chain set with a fire opal</t>
+  </si>
+  <si>
+    <t>Silver chalice set with moonstones</t>
+  </si>
+  <si>
+    <t>Gold ring set with bloodstones</t>
+  </si>
+  <si>
+    <t>Silver ewer</t>
+  </si>
+  <si>
+    <t>7500 GP</t>
+  </si>
+  <si>
+    <t>2500 GP</t>
+  </si>
+  <si>
+    <t>750 GP</t>
+  </si>
+  <si>
+    <t>250 GP</t>
+  </si>
+  <si>
+    <t>25 GP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1347,7 +1666,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1355,11 +1674,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1367,6 +1712,13 @@
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1646,514 +1998,514 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -2164,515 +2516,515 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>300</v>
       </c>
@@ -2683,74 +3035,74 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>275</v>
       </c>
@@ -2761,19 +3113,19 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>380</v>
       </c>
@@ -2781,7 +3133,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>379</v>
       </c>
@@ -2789,12 +3141,12 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>377</v>
       </c>
@@ -2802,7 +3154,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>376</v>
       </c>
@@ -2810,7 +3162,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>375</v>
       </c>
@@ -2818,7 +3170,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>374</v>
       </c>
@@ -2826,12 +3178,12 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>372</v>
       </c>
@@ -2839,7 +3191,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>371</v>
       </c>
@@ -2847,7 +3199,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>370</v>
       </c>
@@ -2858,19 +3210,19 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>381</v>
       </c>
@@ -2879,7 +3231,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>382</v>
       </c>
@@ -2888,7 +3240,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>383</v>
       </c>
@@ -2897,7 +3249,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>404</v>
       </c>
@@ -2906,7 +3258,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>405</v>
       </c>
@@ -2915,7 +3267,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>416</v>
       </c>
@@ -2924,7 +3276,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>406</v>
       </c>
@@ -2933,7 +3285,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>407</v>
       </c>
@@ -2942,7 +3294,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>408</v>
       </c>
@@ -2951,7 +3303,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>409</v>
       </c>
@@ -2960,7 +3312,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>411</v>
       </c>
@@ -2969,7 +3321,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>415</v>
       </c>
@@ -2978,7 +3330,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>412</v>
       </c>
@@ -2987,7 +3339,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>413</v>
       </c>
@@ -2996,7 +3348,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>414</v>
       </c>
@@ -3005,7 +3357,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>403</v>
       </c>
@@ -3014,7 +3366,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>402</v>
       </c>
@@ -3023,7 +3375,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>401</v>
       </c>
@@ -3032,7 +3384,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>400</v>
       </c>
@@ -3041,7 +3393,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>399</v>
       </c>
@@ -3050,7 +3402,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>398</v>
       </c>
@@ -3059,7 +3411,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>397</v>
       </c>
@@ -3068,7 +3420,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>396</v>
       </c>
@@ -3077,7 +3429,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>395</v>
       </c>
@@ -3086,7 +3438,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>394</v>
       </c>
@@ -3095,7 +3447,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>393</v>
       </c>
@@ -3104,7 +3456,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>392</v>
       </c>
@@ -3113,7 +3465,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>391</v>
       </c>
@@ -3122,7 +3474,7 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>390</v>
       </c>
@@ -3131,7 +3483,7 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>389</v>
       </c>
@@ -3140,7 +3492,7 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>388</v>
       </c>
@@ -3149,7 +3501,7 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>387</v>
       </c>
@@ -3158,7 +3510,7 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>386</v>
       </c>
@@ -3167,7 +3519,7 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>385</v>
       </c>
@@ -3176,7 +3528,7 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>384</v>
       </c>
@@ -3191,80 +3543,666 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>418</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>419</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>421</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>384</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCBA4FC-9598-41EC-8C4E-7370B929C14F}">
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="69.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="4"/>
+    </row>
+    <row r="29" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="3"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="3"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525A4CF5-6787-4E58-9D8C-73D86D0F6747}">
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="37.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="58" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D1" t="s">
+        <v>526</v>
+      </c>
+      <c r="E1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H28" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3272,514 +4210,514 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A82" sqref="A82:A83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="31.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>41</v>
       </c>
@@ -3790,514 +4728,514 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>68</v>
       </c>
@@ -4308,514 +5246,514 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>82</v>
       </c>
@@ -4826,514 +5764,514 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>91</v>
       </c>
@@ -5344,514 +6282,514 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="49.28515625" customWidth="1"/>
+    <col min="1" max="1" width="49.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>148</v>
       </c>
@@ -5862,514 +6800,514 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>235</v>
       </c>
@@ -6380,58 +7318,58 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>237</v>
       </c>
@@ -6442,514 +7380,514 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="1" max="1" width="42.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>369</v>
       </c>

--- a/magic_item_tables.xlsx
+++ b/magic_item_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dave_\Documents\DND tool\dnd_random_generation_tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9CDDB5-340D-4460-9E31-CF37697087BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B05EB3-57BD-47E0-B8EE-D498DC34459D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="8" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27620" yWindow="3940" windowWidth="20820" windowHeight="17410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table A" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,8 @@
     <sheet name="Table E" sheetId="5" r:id="rId5"/>
     <sheet name="Table F" sheetId="6" r:id="rId6"/>
     <sheet name="Table G" sheetId="7" r:id="rId7"/>
-    <sheet name="Figureine of Wondrous Power" sheetId="8" r:id="rId8"/>
-    <sheet name="Table H" sheetId="11" r:id="rId9"/>
-    <sheet name="Table I" sheetId="9" r:id="rId10"/>
-    <sheet name="Magic Armor" sheetId="10" r:id="rId11"/>
-    <sheet name="Armor" sheetId="12" r:id="rId12"/>
-    <sheet name="Weapons" sheetId="13" r:id="rId13"/>
-    <sheet name="Ammunition" sheetId="14" r:id="rId14"/>
-    <sheet name="Gems" sheetId="15" r:id="rId15"/>
-    <sheet name="Art Objects" sheetId="16" r:id="rId16"/>
+    <sheet name="Table H" sheetId="11" r:id="rId8"/>
+    <sheet name="Table I" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -40,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="361">
   <si>
     <t>Potion of Healing</t>
   </si>
@@ -750,27 +743,6 @@
     <t>Wings of flying</t>
   </si>
   <si>
-    <t>Onyx dog</t>
-  </si>
-  <si>
-    <t>Serpentine owl</t>
-  </si>
-  <si>
-    <t>Bronze griffon</t>
-  </si>
-  <si>
-    <t>Ebony fly</t>
-  </si>
-  <si>
-    <t>Golden lions</t>
-  </si>
-  <si>
-    <t>Ivory goats</t>
-  </si>
-  <si>
-    <t>Marble elephant</t>
-  </si>
-  <si>
     <t>Defender</t>
   </si>
   <si>
@@ -852,27 +824,6 @@
     <t>Magic armor (roll 1d12)</t>
   </si>
   <si>
-    <t>Armor, +2 plate</t>
-  </si>
-  <si>
-    <t>Armor, +3 studded leather</t>
-  </si>
-  <si>
-    <t>Armor, +3 breastplate</t>
-  </si>
-  <si>
-    <t>Armor, +3 splint</t>
-  </si>
-  <si>
-    <t>Armor, +3 half plate</t>
-  </si>
-  <si>
-    <t>Armor, +3 plate</t>
-  </si>
-  <si>
-    <t>Armor, +2 half plate</t>
-  </si>
-  <si>
     <t>Apparatus of Kwalish</t>
   </si>
   <si>
@@ -1152,168 +1103,6 @@
     <t>Tome of understanding</t>
   </si>
   <si>
-    <t>Plate</t>
-  </si>
-  <si>
-    <t>Splint</t>
-  </si>
-  <si>
-    <t>Chain mail</t>
-  </si>
-  <si>
-    <t>Half plate</t>
-  </si>
-  <si>
-    <t>Breastplate</t>
-  </si>
-  <si>
-    <t>Scale mail</t>
-  </si>
-  <si>
-    <t>Chain shirt</t>
-  </si>
-  <si>
-    <t>Hide</t>
-  </si>
-  <si>
-    <t>Studded leather</t>
-  </si>
-  <si>
-    <t>Leather</t>
-  </si>
-  <si>
-    <t> Padded</t>
-  </si>
-  <si>
-    <t>Club</t>
-  </si>
-  <si>
-    <t>Dagger</t>
-  </si>
-  <si>
-    <t>Greatclub</t>
-  </si>
-  <si>
-    <t>Net</t>
-  </si>
-  <si>
-    <t>Longbow</t>
-  </si>
-  <si>
-    <t>Crossbow, heavy</t>
-  </si>
-  <si>
-    <t>Crossbow, hand</t>
-  </si>
-  <si>
-    <t>Blowgun</t>
-  </si>
-  <si>
-    <t>Whip</t>
-  </si>
-  <si>
-    <t>Warhammer</t>
-  </si>
-  <si>
-    <t>War pick</t>
-  </si>
-  <si>
-    <t>Trident</t>
-  </si>
-  <si>
-    <t>Shortsword</t>
-  </si>
-  <si>
-    <t>Scimitar</t>
-  </si>
-  <si>
-    <t>Rapier</t>
-  </si>
-  <si>
-    <t>Pike</t>
-  </si>
-  <si>
-    <t>Morningstar</t>
-  </si>
-  <si>
-    <t>Maul</t>
-  </si>
-  <si>
-    <t>Longsword</t>
-  </si>
-  <si>
-    <t>Lance</t>
-  </si>
-  <si>
-    <t>Halberd</t>
-  </si>
-  <si>
-    <t>Greatsword</t>
-  </si>
-  <si>
-    <t>Greataxe</t>
-  </si>
-  <si>
-    <t>Handaxe</t>
-  </si>
-  <si>
-    <t>Light hammer</t>
-  </si>
-  <si>
-    <t>Quarterstaff</t>
-  </si>
-  <si>
-    <t>Sickle</t>
-  </si>
-  <si>
-    <t>Spear</t>
-  </si>
-  <si>
-    <t>Crossbow, light</t>
-  </si>
-  <si>
-    <t>Dart</t>
-  </si>
-  <si>
-    <t>Shortbow</t>
-  </si>
-  <si>
-    <t>Battleaxe</t>
-  </si>
-  <si>
-    <t>Flail</t>
-  </si>
-  <si>
-    <t>Glaive</t>
-  </si>
-  <si>
-    <t>Sling</t>
-  </si>
-  <si>
-    <t>Mace</t>
-  </si>
-  <si>
-    <t>Javelin</t>
-  </si>
-  <si>
-    <t>Arrows (20)</t>
-  </si>
-  <si>
-    <t>Blowgun needles (50)</t>
-  </si>
-  <si>
-    <t>Crossbow bolts (20)</t>
-  </si>
-  <si>
-    <t>Sling bullets (20)</t>
-  </si>
-  <si>
-    <t>Hand Axe</t>
-  </si>
-  <si>
-    <t>Light Hammer</t>
-  </si>
-  <si>
     <t>Shield, +1</t>
   </si>
   <si>
@@ -1327,332 +1116,16 @@
   </si>
   <si>
     <t>Staff of the Magi</t>
-  </si>
-  <si>
-    <t>–</t>
-  </si>
-  <si>
-    <t>Ruby (transparent clear red to deep crimson)</t>
-  </si>
-  <si>
-    <t>Star ruby (translucent ruby with white star-shaped center)</t>
-  </si>
-  <si>
-    <t>Topaz (transparent golden yellow)</t>
-  </si>
-  <si>
-    <t>Zircon (transparent pale blue-green)</t>
-  </si>
-  <si>
-    <t>Turquoise (opaque light blue-green)</t>
-  </si>
-  <si>
-    <t>Jacinth (transparent fiery orange)</t>
-  </si>
-  <si>
-    <t>Fire opal (translucent fiery red)</t>
-  </si>
-  <si>
-    <t>Peridot (transparent rich olive green)</t>
-  </si>
-  <si>
-    <t>Star rose quartz (translucent rosy stone with white star-shaped center)</t>
-  </si>
-  <si>
-    <t>Tiger eye (translucent brown with golden center)</t>
-  </si>
-  <si>
-    <t>Diamond (transparent blue-white, canary, pink, brown, or blue)</t>
-  </si>
-  <si>
-    <t>Emerald (transparent deep bright green)</t>
-  </si>
-  <si>
-    <t>Blue spinel (transparent deep blue)</t>
-  </si>
-  <si>
-    <t>Sardonyx (opaque bands of red and white)</t>
-  </si>
-  <si>
-    <t>Rhodochrosite (opaque light pink)</t>
-  </si>
-  <si>
-    <t>Black sapphire (translucent lustrous black with glowing highlights)</t>
-  </si>
-  <si>
-    <t>Blue sapphire (transparent blue-white to medium blue)</t>
-  </si>
-  <si>
-    <t>Black pearl (opaque pure black)</t>
-  </si>
-  <si>
-    <t>Quartz (transparent white, smoky gray, or yellow)</t>
-  </si>
-  <si>
-    <t>Obsidian (opaque black)</t>
-  </si>
-  <si>
-    <t>Yellow sapphire (transparent fiery yellow or yellow green)</t>
-  </si>
-  <si>
-    <t>Aquamarine (transparent pale blue-green)</t>
-  </si>
-  <si>
-    <t>Onyx (opaque bands of black and white, or pure black or white)</t>
-  </si>
-  <si>
-    <t>Moss agate (translucent pink or yellow-white with mossy gray or green markings)</t>
-  </si>
-  <si>
-    <t>Star sapphire (translucent blue sapphire with white star-shaped center)</t>
-  </si>
-  <si>
-    <t>Alexandrite (transparent dark green)</t>
-  </si>
-  <si>
-    <t>Moonstone (translucent white with pale blue glow)</t>
-  </si>
-  <si>
-    <t>Malachite (opaque striated light and dark green)</t>
-  </si>
-  <si>
-    <t>Jasper (opaque blue, black, or brown)</t>
-  </si>
-  <si>
-    <t>Lapis lazuli (opaque light and dark blue with yellow flecks)</t>
-  </si>
-  <si>
-    <t>Opal (translucent pale blue with green and golden mottling)</t>
-  </si>
-  <si>
-    <t>Citrine (transparent pale yellow-brown)</t>
-  </si>
-  <si>
-    <t>Hematite (opaque gray-black)</t>
-  </si>
-  <si>
-    <t>Chrysoprase (translucent green)</t>
-  </si>
-  <si>
-    <t>Eye agate (translucent circles of gray, white, brown, blue, or green)</t>
-  </si>
-  <si>
-    <t>Chalcedony (opaque white)</t>
-  </si>
-  <si>
-    <t>Blue quartz (transparent pale blue)</t>
-  </si>
-  <si>
-    <t>Carnelian (opaque orange to red-brown)</t>
-  </si>
-  <si>
-    <t>Banded agate (translucent striped brown, blue, white, or red)</t>
-  </si>
-  <si>
-    <t>Black opal (translucent dark green with black mottling and golden flecks)</t>
-  </si>
-  <si>
-    <t>Bloodstone (opaque dark gray with red flecks)</t>
-  </si>
-  <si>
-    <t>Azurite (opaque mottled deep blue)</t>
-  </si>
-  <si>
-    <t>5000 GP</t>
-  </si>
-  <si>
-    <t>1000 GP</t>
-  </si>
-  <si>
-    <t>500 GP</t>
-  </si>
-  <si>
-    <t>50 GP</t>
-  </si>
-  <si>
-    <t>10 GP</t>
-  </si>
-  <si>
-    <t>A necklace string of small pink pearls</t>
-  </si>
-  <si>
-    <t>Painted gold war mask</t>
-  </si>
-  <si>
-    <t>Gold bird cage with electrum filigree</t>
-  </si>
-  <si>
-    <t>Gold locket with a painted portrait inside</t>
-  </si>
-  <si>
-    <t>Eye patch with a mock eye set in blue sapphire andmoonstone</t>
-  </si>
-  <si>
-    <t>Obsidian statuette with gold fittings and inlay</t>
-  </si>
-  <si>
-    <t>Box of turquoise animal figurines</t>
-  </si>
-  <si>
-    <t>Embroidered silk handkerchief</t>
-  </si>
-  <si>
-    <t>Bejeweled ivory drinking horn with gold filigree</t>
-  </si>
-  <si>
-    <t>Gold circlet set with four aquamarines</t>
-  </si>
-  <si>
-    <t>Silver and gold brooch</t>
-  </si>
-  <si>
-    <t>Brass mug with jade inlay</t>
-  </si>
-  <si>
-    <t>Small mirror set in a painted wooden frame</t>
-  </si>
-  <si>
-    <t>Jade game board with solid gold playing pieces</t>
-  </si>
-  <si>
-    <t>Gold music box</t>
-  </si>
-  <si>
-    <t>Ceremonial electrum dagger with a black pearl in the pommel</t>
-  </si>
-  <si>
-    <t>Large well-made tapestry</t>
-  </si>
-  <si>
-    <t>Pair of engraved bone dice</t>
-  </si>
-  <si>
-    <t>Painted gold child's sarcophagus</t>
-  </si>
-  <si>
-    <t>Jeweled anklet</t>
-  </si>
-  <si>
-    <t>Bottle stopper cork embossed with gold leaf and set with amethysts</t>
-  </si>
-  <si>
-    <t>Silk robe with gold embroidery</t>
-  </si>
-  <si>
-    <t>Copper chalice with silver filigree</t>
-  </si>
-  <si>
-    <t>Gold jewelry box with platinum filigree</t>
-  </si>
-  <si>
-    <t>Embroidered glove set with jewel chips</t>
-  </si>
-  <si>
-    <t>Gold dragon comb set with red garnets as eyes</t>
-  </si>
-  <si>
-    <t>Bronze crown</t>
-  </si>
-  <si>
-    <t>Black velvet mask stitched with silver thread</t>
-  </si>
-  <si>
-    <t>Gold cup set with emeralds</t>
-  </si>
-  <si>
-    <t>Platinum bracelet set with a sapphire</t>
-  </si>
-  <si>
-    <t>Small gold idol</t>
-  </si>
-  <si>
-    <t>Silver necklace with a gemstone pendant</t>
-  </si>
-  <si>
-    <t>Cloth-of-gold vestments</t>
-  </si>
-  <si>
-    <t>Small gold statuette set with rubies</t>
-  </si>
-  <si>
-    <t>Embroidered silk and velvet mantle set with numerous moonstones</t>
-  </si>
-  <si>
-    <t>Carved harp of exotic wood with ivory inlay and zircon gems</t>
-  </si>
-  <si>
-    <t>Large gold bracelet</t>
-  </si>
-  <si>
-    <t>Small gold bracelet</t>
-  </si>
-  <si>
-    <t>Jeweled platinum ring</t>
-  </si>
-  <si>
-    <t>Old masterpiece painting</t>
-  </si>
-  <si>
-    <t>Silver-plated steellongsword with jet set in hilt</t>
-  </si>
-  <si>
-    <t>Carved ivory statuette</t>
-  </si>
-  <si>
-    <t>Carved bone statuette</t>
-  </si>
-  <si>
-    <t>Jeweled gold crown</t>
-  </si>
-  <si>
-    <t>Fine gold chain set with a fire opal</t>
-  </si>
-  <si>
-    <t>Silver chalice set with moonstones</t>
-  </si>
-  <si>
-    <t>Gold ring set with bloodstones</t>
-  </si>
-  <si>
-    <t>Silver ewer</t>
-  </si>
-  <si>
-    <t>7500 GP</t>
-  </si>
-  <si>
-    <t>2500 GP</t>
-  </si>
-  <si>
-    <t>750 GP</t>
-  </si>
-  <si>
-    <t>250 GP</t>
-  </si>
-  <si>
-    <t>25 GP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1666,7 +1139,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1674,51 +1147,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2001,7 +1438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
@@ -2509,1700 +1946,6 @@
       <c r="A100" t="s">
         <v>7</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:B100"/>
-  <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="38" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A94" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A96" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:A12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="26.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>275</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="17.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:E35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="21.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCBA4FC-9598-41EC-8C4E-7370B929C14F}">
-  <dimension ref="A1:E37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="69.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.08984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C1" t="s">
-        <v>474</v>
-      </c>
-      <c r="D1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="4"/>
-    </row>
-    <row r="29" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="30" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="3"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="3"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="3"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="3"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="3"/>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="3"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525A4CF5-6787-4E58-9D8C-73D86D0F6747}">
-  <dimension ref="A1:J28"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="37.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.36328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>529</v>
-      </c>
-      <c r="B1" t="s">
-        <v>528</v>
-      </c>
-      <c r="C1" t="s">
-        <v>527</v>
-      </c>
-      <c r="D1" t="s">
-        <v>526</v>
-      </c>
-      <c r="E1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H28" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6371,17 +4114,17 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>424</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>424</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>424</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6521,12 +4264,12 @@
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>425</v>
+        <v>357</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>425</v>
+        <v>357</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
@@ -6591,12 +4334,12 @@
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>426</v>
+        <v>358</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>426</v>
+        <v>358</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
@@ -6869,17 +4612,17 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>427</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>427</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>427</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
@@ -7318,73 +5061,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7394,502 +5075,1021 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>369</v>
+        <v>355</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:B100"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F107" sqref="F107"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/magic_item_tables.xlsx
+++ b/magic_item_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dave_\Documents\DND tool\dnd_random_generation_tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC85F61-1B77-450D-80F2-7240BB7C9BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEFADC0-E0B7-424C-B932-FAE5CACE1D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="11500" yWindow="340" windowWidth="20820" windowHeight="17410" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12990" yWindow="5010" windowWidth="20820" windowHeight="17410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table A" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="362">
   <si>
     <t>Potion of Healing</t>
   </si>
@@ -71,12 +71,6 @@
     <t>Potion of water breathing</t>
   </si>
   <si>
-    <t>Spell scroll (2nd level)</t>
-  </si>
-  <si>
-    <t>Spell scroll (3rd level)</t>
-  </si>
-  <si>
     <t>Bag of holding</t>
   </si>
   <si>
@@ -182,9 +176,6 @@
     <t>Potion of mind reading</t>
   </si>
   <si>
-    <t>Spell scroll (5thlevel)</t>
-  </si>
-  <si>
     <t>Elixir of health</t>
   </si>
   <si>
@@ -230,9 +221,6 @@
     <t>Sending Stones</t>
   </si>
   <si>
-    <t>Spell scroll (4th level)</t>
-  </si>
-  <si>
     <t>Ammunition, +3</t>
   </si>
   <si>
@@ -272,24 +260,12 @@
     <t>Portable hole</t>
   </si>
   <si>
-    <t>Spell scroll (8th level)</t>
-  </si>
-  <si>
-    <t>Spell scroll (7th level)</t>
-  </si>
-  <si>
-    <t>Spell scroll (6th level)</t>
-  </si>
-  <si>
     <t>Potion of storm giant strength</t>
   </si>
   <si>
     <t>Poti on of supreme healing</t>
   </si>
   <si>
-    <t>Spell scroll (9th level)</t>
-  </si>
-  <si>
     <t>Universal solvent</t>
   </si>
   <si>
@@ -1115,13 +1091,34 @@
     <t>Ring of Spell turning</t>
   </si>
   <si>
-    <t>Spell scroll: 1st Level</t>
-  </si>
-  <si>
-    <t>Spell scroll: 2nd Level</t>
-  </si>
-  <si>
     <t>Magic Item</t>
+  </si>
+  <si>
+    <t>Spell Scroll (Level 1)</t>
+  </si>
+  <si>
+    <t>Spell Scroll (Level 2)</t>
+  </si>
+  <si>
+    <t>Spell Scroll (Level 4)</t>
+  </si>
+  <si>
+    <t>Spell Scroll (Level 3)</t>
+  </si>
+  <si>
+    <t>Spell Scroll (Level 5)</t>
+  </si>
+  <si>
+    <t>Spell Scroll (Level 6)</t>
+  </si>
+  <si>
+    <t>Spell Scroll (Level 7)</t>
+  </si>
+  <si>
+    <t>Spell Scroll (Level 8)</t>
+  </si>
+  <si>
+    <t>Spell Scroll (Level 9)</t>
   </si>
 </sst>
 </file>
@@ -1447,9 +1444,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G51" sqref="G51:G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1460,10 +1457,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -1871,7 +1868,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -1879,7 +1876,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -1887,7 +1884,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -1895,7 +1892,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -1903,7 +1900,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -1911,7 +1908,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -1919,7 +1916,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -1927,7 +1924,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -1935,7 +1932,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -1943,7 +1940,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -2031,7 +2028,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -2039,7 +2036,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -2047,7 +2044,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -2055,7 +2052,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -2063,7 +2060,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -2071,7 +2068,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -2079,7 +2076,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -2087,7 +2084,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -2095,7 +2092,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -2103,7 +2100,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -2111,7 +2108,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -2119,7 +2116,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -2127,7 +2124,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -2135,7 +2132,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -2143,7 +2140,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -2151,7 +2148,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -2159,7 +2156,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -2167,7 +2164,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -2175,7 +2172,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -2183,7 +2180,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -2191,7 +2188,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -2199,7 +2196,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -2207,7 +2204,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -2215,7 +2212,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -2276,8 +2273,8 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2288,10 +2285,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -2731,7 +2728,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>354</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -2739,7 +2736,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>354</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -2747,7 +2744,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>354</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -2755,7 +2752,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>354</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -2763,7 +2760,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>354</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -2771,7 +2768,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>13</v>
+        <v>356</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -2779,7 +2776,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>13</v>
+        <v>356</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -2787,7 +2784,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>13</v>
+        <v>356</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -2795,7 +2792,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>13</v>
+        <v>356</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -2803,7 +2800,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>13</v>
+        <v>356</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -2811,7 +2808,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -2819,7 +2816,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -2827,7 +2824,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -2835,7 +2832,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -2843,7 +2840,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -2851,7 +2848,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -2859,7 +2856,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -2867,7 +2864,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -2875,7 +2872,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -2883,7 +2880,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -2891,7 +2888,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -2899,7 +2896,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -2907,7 +2904,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -2915,7 +2912,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -2923,7 +2920,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -2931,7 +2928,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -2939,7 +2936,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -2947,7 +2944,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -2955,7 +2952,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -2963,7 +2960,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -2971,7 +2968,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -2979,7 +2976,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -2987,7 +2984,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -2995,7 +2992,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3003,7 +3000,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -3011,7 +3008,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -3019,7 +3016,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -3027,7 +3024,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -3035,7 +3032,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -3043,7 +3040,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -3051,7 +3048,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -3059,7 +3056,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -3067,7 +3064,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -3075,7 +3072,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -3083,7 +3080,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -3091,7 +3088,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3116,10 +3113,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -3127,7 +3124,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3135,7 +3132,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -3143,7 +3140,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -3151,7 +3148,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -3159,7 +3156,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -3167,7 +3164,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -3175,7 +3172,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -3183,7 +3180,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -3191,7 +3188,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -3199,7 +3196,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -3207,7 +3204,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -3215,7 +3212,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -3223,7 +3220,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -3231,7 +3228,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -3239,7 +3236,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -3247,7 +3244,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -3255,7 +3252,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -3263,7 +3260,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -3271,7 +3268,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>355</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -3279,7 +3276,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -3287,7 +3284,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -3295,7 +3292,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -3303,7 +3300,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -3311,7 +3308,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -3319,7 +3316,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -3327,7 +3324,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -3335,7 +3332,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -3343,7 +3340,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -3351,7 +3348,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -3359,7 +3356,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -3367,7 +3364,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -3375,7 +3372,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -3383,7 +3380,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -3391,7 +3388,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -3399,7 +3396,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -3407,7 +3404,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -3415,7 +3412,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -3423,7 +3420,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -3431,7 +3428,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -3439,7 +3436,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -3447,7 +3444,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -3455,7 +3452,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -3463,7 +3460,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -3471,7 +3468,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -3479,7 +3476,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -3487,7 +3484,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -3495,7 +3492,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -3503,7 +3500,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -3511,7 +3508,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -3519,7 +3516,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -3527,7 +3524,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -3535,7 +3532,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -3543,7 +3540,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -3551,7 +3548,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -3559,7 +3556,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -3567,7 +3564,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -3575,7 +3572,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -3583,7 +3580,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -3591,7 +3588,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -3599,7 +3596,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -3607,7 +3604,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -3615,7 +3612,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -3623,7 +3620,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -3631,7 +3628,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -3639,7 +3636,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -3647,7 +3644,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -3655,7 +3652,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -3663,7 +3660,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>49</v>
+        <v>357</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -3671,7 +3668,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>49</v>
+        <v>357</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -3679,7 +3676,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>49</v>
+        <v>357</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -3687,7 +3684,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>49</v>
+        <v>357</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -3695,7 +3692,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>49</v>
+        <v>357</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -3703,7 +3700,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -3711,7 +3708,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -3719,7 +3716,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -3727,7 +3724,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -3735,7 +3732,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -3743,7 +3740,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -3751,7 +3748,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -3759,7 +3756,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -3767,7 +3764,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -3775,7 +3772,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -3783,7 +3780,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -3791,7 +3788,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -3799,7 +3796,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -3807,7 +3804,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -3815,7 +3812,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -3823,7 +3820,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -3831,7 +3828,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -3839,7 +3836,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -3847,7 +3844,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -3855,7 +3852,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -3863,7 +3860,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -3871,7 +3868,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -3879,7 +3876,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -3887,7 +3884,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -3895,7 +3892,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -3903,7 +3900,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -3911,7 +3908,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -3919,7 +3916,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3932,7 +3929,7 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -3944,10 +3941,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -3955,7 +3952,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3963,7 +3960,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -3971,7 +3968,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -3979,7 +3976,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -3987,7 +3984,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -3995,7 +3992,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -4003,7 +4000,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -4011,7 +4008,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -4019,7 +4016,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -4027,7 +4024,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -4035,7 +4032,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -4043,7 +4040,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -4051,7 +4048,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -4059,7 +4056,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -4067,7 +4064,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -4075,7 +4072,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -4083,7 +4080,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -4091,7 +4088,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -4099,7 +4096,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -4107,7 +4104,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -4115,7 +4112,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -4123,7 +4120,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -4131,7 +4128,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -4139,7 +4136,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -4147,7 +4144,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -4155,7 +4152,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -4163,7 +4160,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -4171,7 +4168,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -4179,7 +4176,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -4187,7 +4184,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -4195,7 +4192,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -4203,7 +4200,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -4211,7 +4208,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -4219,7 +4216,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -4227,7 +4224,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -4235,7 +4232,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -4243,7 +4240,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -4251,7 +4248,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -4259,7 +4256,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -4267,7 +4264,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -4275,7 +4272,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>358</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -4283,7 +4280,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>358</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -4291,7 +4288,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>358</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -4299,7 +4296,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>358</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -4307,7 +4304,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>358</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -4315,7 +4312,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>358</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -4323,7 +4320,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>358</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -4331,7 +4328,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>358</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -4339,7 +4336,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
+        <v>358</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -4347,7 +4344,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>358</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -4355,7 +4352,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>359</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -4363,7 +4360,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>80</v>
+        <v>359</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -4371,7 +4368,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>80</v>
+        <v>359</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -4379,7 +4376,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>359</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -4387,7 +4384,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>359</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -4395,7 +4392,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>359</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -4403,7 +4400,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>80</v>
+        <v>359</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -4411,7 +4408,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -4419,7 +4416,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -4427,7 +4424,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -4435,7 +4432,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -4443,7 +4440,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -4451,7 +4448,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -4459,7 +4456,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -4467,7 +4464,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -4475,7 +4472,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -4483,7 +4480,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -4491,7 +4488,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -4499,7 +4496,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -4507,7 +4504,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -4515,7 +4512,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -4523,7 +4520,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -4531,7 +4528,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -4539,7 +4536,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -4547,7 +4544,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -4555,7 +4552,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -4563,7 +4560,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -4571,7 +4568,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -4579,7 +4576,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -4587,7 +4584,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -4595,7 +4592,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -4603,7 +4600,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -4611,7 +4608,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -4619,7 +4616,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -4627,7 +4624,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -4635,7 +4632,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -4643,7 +4640,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -4651,7 +4648,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>79</v>
+        <v>360</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -4659,7 +4656,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>79</v>
+        <v>360</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -4667,7 +4664,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>79</v>
+        <v>360</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -4675,7 +4672,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>79</v>
+        <v>360</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -4683,7 +4680,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>79</v>
+        <v>360</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -4691,7 +4688,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -4699,7 +4696,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -4707,7 +4704,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -4715,7 +4712,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -4723,7 +4720,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -4731,7 +4728,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -4739,7 +4736,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -4747,7 +4744,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -4759,7 +4756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -4771,10 +4768,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -4782,7 +4779,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -4790,7 +4787,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -4798,7 +4795,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -4806,7 +4803,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -4814,7 +4811,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -4822,7 +4819,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -4830,7 +4827,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -4838,7 +4835,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -4846,7 +4843,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -4854,7 +4851,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -4862,7 +4859,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -4870,7 +4867,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -4878,7 +4875,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -4886,7 +4883,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -4894,7 +4891,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -4902,7 +4899,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -4910,7 +4907,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -4918,7 +4915,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -4926,7 +4923,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -4934,7 +4931,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -4942,7 +4939,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -4950,7 +4947,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -4958,7 +4955,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -4966,7 +4963,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>360</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -4974,7 +4971,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -4982,7 +4979,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>360</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -4990,7 +4987,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -4998,7 +4995,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -5006,7 +5003,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -5014,7 +5011,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>360</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -5022,7 +5019,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -5030,7 +5027,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -5038,7 +5035,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -5046,7 +5043,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -5054,7 +5051,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -5062,7 +5059,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -5070,7 +5067,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -5078,7 +5075,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -5086,7 +5083,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -5094,7 +5091,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -5102,7 +5099,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -5110,7 +5107,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -5118,7 +5115,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -5126,7 +5123,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -5134,7 +5131,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -5142,7 +5139,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -5150,7 +5147,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -5158,7 +5155,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -5166,7 +5163,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -5174,7 +5171,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -5182,7 +5179,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -5190,7 +5187,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -5198,7 +5195,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -5206,7 +5203,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -5214,7 +5211,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -5222,7 +5219,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -5230,7 +5227,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -5238,7 +5235,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -5246,7 +5243,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -5254,7 +5251,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -5262,7 +5259,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -5270,7 +5267,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -5278,7 +5275,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -5286,7 +5283,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -5294,7 +5291,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -5302,7 +5299,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -5310,7 +5307,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -5318,7 +5315,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -5326,7 +5323,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -5334,7 +5331,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -5342,7 +5339,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>84</v>
+        <v>361</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -5350,7 +5347,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>84</v>
+        <v>361</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -5358,7 +5355,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>84</v>
+        <v>361</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -5366,7 +5363,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>84</v>
+        <v>361</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -5374,7 +5371,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>84</v>
+        <v>361</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -5382,7 +5379,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>361</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -5390,7 +5387,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
+        <v>361</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -5398,7 +5395,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>84</v>
+        <v>361</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -5406,7 +5403,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>361</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -5414,7 +5411,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>361</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -5422,7 +5419,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>361</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -5430,7 +5427,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>361</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -5438,7 +5435,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>361</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -5446,7 +5443,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>361</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -5454,7 +5451,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>361</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -5462,7 +5459,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -5470,7 +5467,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -5478,7 +5475,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -5486,7 +5483,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -5494,7 +5491,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -5502,7 +5499,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -5510,7 +5507,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -5518,7 +5515,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -5526,7 +5523,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -5534,7 +5531,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -5542,7 +5539,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -5550,7 +5547,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -5558,7 +5555,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -5566,7 +5563,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -5574,7 +5571,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -5587,7 +5584,7 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -5599,10 +5596,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -5610,7 +5607,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -5618,7 +5615,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -5626,7 +5623,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -5634,7 +5631,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -5642,7 +5639,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -5650,7 +5647,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -5658,7 +5655,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -5666,7 +5663,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -5674,7 +5671,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -5682,7 +5679,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -5690,7 +5687,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -5698,7 +5695,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -5706,7 +5703,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -5714,7 +5711,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -5722,7 +5719,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -5730,7 +5727,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -5738,7 +5735,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -5746,7 +5743,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5754,7 +5751,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -5762,7 +5759,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -5770,7 +5767,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -5778,7 +5775,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -5786,7 +5783,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -5794,7 +5791,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -5802,7 +5799,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -5810,7 +5807,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -5818,7 +5815,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -5826,7 +5823,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -5834,7 +5831,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -5842,7 +5839,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -5850,7 +5847,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -5858,7 +5855,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -5866,7 +5863,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -5874,7 +5871,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -5882,7 +5879,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -5890,7 +5887,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -5898,7 +5895,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -5906,7 +5903,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -5914,7 +5911,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -5922,7 +5919,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -5930,7 +5927,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -5938,7 +5935,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -5946,7 +5943,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -5954,7 +5951,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -5962,7 +5959,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -5970,7 +5967,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -5978,7 +5975,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -5986,7 +5983,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -5994,7 +5991,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -6002,7 +5999,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -6010,7 +6007,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -6018,7 +6015,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -6026,7 +6023,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -6034,7 +6031,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -6042,7 +6039,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -6050,7 +6047,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -6058,7 +6055,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -6066,7 +6063,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -6074,7 +6071,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -6082,7 +6079,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -6090,7 +6087,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -6098,7 +6095,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -6106,7 +6103,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -6114,7 +6111,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -6122,7 +6119,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -6130,7 +6127,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -6138,7 +6135,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -6146,7 +6143,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -6154,7 +6151,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -6162,7 +6159,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -6170,7 +6167,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -6178,7 +6175,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -6186,7 +6183,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -6194,7 +6191,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -6202,7 +6199,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -6210,7 +6207,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -6218,7 +6215,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -6226,7 +6223,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -6234,7 +6231,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -6242,7 +6239,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -6250,7 +6247,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -6258,7 +6255,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -6266,7 +6263,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -6274,7 +6271,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -6282,7 +6279,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -6290,7 +6287,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -6298,7 +6295,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -6306,7 +6303,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -6314,7 +6311,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -6322,7 +6319,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -6330,7 +6327,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -6338,7 +6335,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -6346,7 +6343,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -6354,7 +6351,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -6362,7 +6359,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -6370,7 +6367,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -6378,7 +6375,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -6386,7 +6383,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -6394,7 +6391,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -6402,7 +6399,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -6415,7 +6412,7 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -6427,10 +6424,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -6438,7 +6435,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -6446,7 +6443,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -6454,7 +6451,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -6462,7 +6459,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -6470,7 +6467,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -6478,7 +6475,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -6486,7 +6483,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -6494,7 +6491,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -6502,7 +6499,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -6510,7 +6507,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -6518,7 +6515,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -6526,7 +6523,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -6534,7 +6531,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -6542,7 +6539,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -6550,7 +6547,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -6558,7 +6555,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -6566,7 +6563,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -6574,7 +6571,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -6582,7 +6579,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -6590,7 +6587,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -6598,7 +6595,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -6606,7 +6603,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -6614,7 +6611,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -6622,7 +6619,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -6630,7 +6627,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -6638,7 +6635,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -6646,7 +6643,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -6654,7 +6651,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -6662,7 +6659,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -6670,7 +6667,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -6678,7 +6675,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -6686,7 +6683,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -6694,7 +6691,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -6702,7 +6699,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -6710,7 +6707,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -6718,7 +6715,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -6726,7 +6723,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -6734,7 +6731,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -6742,7 +6739,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -6750,7 +6747,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -6758,7 +6755,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -6766,7 +6763,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -6774,7 +6771,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -6782,7 +6779,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -6790,7 +6787,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -6798,7 +6795,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -6806,7 +6803,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -6814,7 +6811,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -6822,7 +6819,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -6830,7 +6827,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -6838,7 +6835,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -6846,7 +6843,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -6854,7 +6851,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -6862,7 +6859,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -6870,7 +6867,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -6878,7 +6875,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -6886,7 +6883,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -6894,7 +6891,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -6902,7 +6899,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -6910,7 +6907,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -6918,7 +6915,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -6926,7 +6923,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -6934,7 +6931,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -6942,7 +6939,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -6950,7 +6947,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -6958,7 +6955,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -6966,7 +6963,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -6974,7 +6971,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -6982,7 +6979,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -6990,7 +6987,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -6998,7 +6995,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -7006,7 +7003,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -7014,7 +7011,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -7022,7 +7019,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -7030,7 +7027,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -7038,7 +7035,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -7046,7 +7043,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -7054,7 +7051,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -7062,7 +7059,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -7070,7 +7067,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -7078,7 +7075,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -7086,7 +7083,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -7094,7 +7091,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -7102,7 +7099,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -7110,7 +7107,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -7118,7 +7115,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -7126,7 +7123,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -7134,7 +7131,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -7142,7 +7139,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -7150,7 +7147,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -7158,7 +7155,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -7166,7 +7163,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -7174,7 +7171,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -7182,7 +7179,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -7190,7 +7187,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -7198,7 +7195,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -7206,7 +7203,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -7214,7 +7211,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -7222,7 +7219,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -7230,7 +7227,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -7243,7 +7240,7 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -7255,10 +7252,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -7266,7 +7263,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -7274,7 +7271,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -7282,7 +7279,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -7290,7 +7287,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -7298,7 +7295,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -7306,7 +7303,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -7314,7 +7311,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -7322,7 +7319,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -7330,7 +7327,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -7338,7 +7335,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -7346,7 +7343,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -7354,7 +7351,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -7362,7 +7359,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -7370,7 +7367,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -7378,7 +7375,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -7386,7 +7383,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -7394,7 +7391,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -7402,7 +7399,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -7410,7 +7407,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -7418,7 +7415,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -7426,7 +7423,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -7434,7 +7431,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -7442,7 +7439,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -7450,7 +7447,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -7458,7 +7455,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -7466,7 +7463,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -7474,7 +7471,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -7482,7 +7479,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -7490,7 +7487,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -7498,7 +7495,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -7506,7 +7503,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -7514,7 +7511,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -7522,7 +7519,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -7530,7 +7527,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -7538,7 +7535,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -7546,7 +7543,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -7554,7 +7551,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -7562,7 +7559,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -7570,7 +7567,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -7578,7 +7575,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -7586,7 +7583,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -7594,7 +7591,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -7602,7 +7599,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -7610,7 +7607,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -7618,7 +7615,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -7626,7 +7623,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -7634,7 +7631,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -7642,7 +7639,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -7650,7 +7647,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -7658,7 +7655,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -7666,7 +7663,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -7674,7 +7671,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -7682,7 +7679,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -7690,7 +7687,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -7698,7 +7695,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -7706,7 +7703,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -7714,7 +7711,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -7722,7 +7719,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -7730,7 +7727,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -7738,7 +7735,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -7746,7 +7743,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -7754,7 +7751,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -7762,7 +7759,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -7770,7 +7767,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -7778,7 +7775,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -7786,7 +7783,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -7794,7 +7791,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -7802,7 +7799,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -7810,7 +7807,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -7818,7 +7815,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -7826,7 +7823,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -7834,7 +7831,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -7842,7 +7839,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -7850,7 +7847,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -7858,7 +7855,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -7866,7 +7863,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -7874,7 +7871,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -7882,7 +7879,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -7890,7 +7887,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -7898,7 +7895,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -7906,7 +7903,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -7914,7 +7911,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -7922,7 +7919,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -7930,7 +7927,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -7938,7 +7935,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -7946,7 +7943,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -7954,7 +7951,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -7962,7 +7959,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -7970,7 +7967,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -7978,7 +7975,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -7986,7 +7983,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -7994,7 +7991,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -8002,7 +7999,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -8010,7 +8007,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -8018,7 +8015,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -8026,7 +8023,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -8034,7 +8031,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -8042,7 +8039,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -8050,7 +8047,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -8058,7 +8055,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -8070,8 +8067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -8083,10 +8080,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -8094,7 +8091,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -8102,7 +8099,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -8110,7 +8107,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -8118,7 +8115,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -8126,7 +8123,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -8134,7 +8131,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -8142,7 +8139,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -8150,7 +8147,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -8158,7 +8155,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -8166,7 +8163,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -8174,7 +8171,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -8182,7 +8179,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -8190,7 +8187,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -8198,7 +8195,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -8206,7 +8203,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -8214,7 +8211,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -8222,7 +8219,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -8230,7 +8227,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -8238,7 +8235,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -8246,7 +8243,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -8254,7 +8251,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -8262,7 +8259,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C23" s="1"/>
     </row>
@@ -8271,7 +8268,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -8279,7 +8276,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -8287,7 +8284,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -8295,7 +8292,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -8303,7 +8300,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -8311,7 +8308,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -8319,7 +8316,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -8327,7 +8324,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -8335,7 +8332,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -8343,7 +8340,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -8351,7 +8348,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -8359,7 +8356,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -8367,7 +8364,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -8375,7 +8372,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -8383,7 +8380,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -8391,7 +8388,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -8399,7 +8396,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -8407,7 +8404,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -8415,7 +8412,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -8423,7 +8420,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -8431,7 +8428,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -8439,7 +8436,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -8447,7 +8444,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -8455,7 +8452,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -8463,7 +8460,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -8471,7 +8468,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -8479,7 +8476,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -8487,7 +8484,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -8495,7 +8492,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -8503,7 +8500,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -8511,7 +8508,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -8519,7 +8516,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -8527,7 +8524,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -8535,7 +8532,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -8543,7 +8540,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -8551,7 +8548,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -8559,7 +8556,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -8567,7 +8564,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -8575,7 +8572,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -8583,7 +8580,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -8591,7 +8588,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -8599,7 +8596,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -8607,7 +8604,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -8615,7 +8612,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -8623,7 +8620,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -8631,7 +8628,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -8639,7 +8636,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -8647,7 +8644,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -8655,7 +8652,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -8663,7 +8660,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -8671,7 +8668,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -8679,7 +8676,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -8687,7 +8684,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -8695,7 +8692,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -8703,7 +8700,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -8711,7 +8708,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -8719,7 +8716,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -8727,7 +8724,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -8735,7 +8732,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -8743,7 +8740,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -8751,7 +8748,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -8759,7 +8756,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -8767,7 +8764,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -8775,7 +8772,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -8783,7 +8780,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -8791,7 +8788,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -8799,7 +8796,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -8807,7 +8804,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -8815,7 +8812,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -8823,7 +8820,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -8831,7 +8828,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -8839,7 +8836,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -8847,7 +8844,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -8855,7 +8852,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -8863,7 +8860,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -8871,7 +8868,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -8879,7 +8876,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -8887,7 +8884,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/magic_item_tables.xlsx
+++ b/magic_item_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dave_\Documents\DND tool\dnd_random_generation_tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEFADC0-E0B7-424C-B932-FAE5CACE1D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD663345-9C6F-4784-8EF5-0FAD35DAC608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12990" yWindow="5010" windowWidth="20820" windowHeight="17410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12990" yWindow="3590" windowWidth="20820" windowHeight="17410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table A" sheetId="1" r:id="rId1"/>
@@ -1076,9 +1076,6 @@
     <t>Roll</t>
   </si>
   <si>
-    <t>Spell scroll: Cantrip</t>
-  </si>
-  <si>
     <t>scroll of protection</t>
   </si>
   <si>
@@ -1119,6 +1116,9 @@
   </si>
   <si>
     <t>Spell Scroll (Level 9)</t>
+  </si>
+  <si>
+    <t>Spell Scroll (Cantrip)</t>
   </si>
 </sst>
 </file>
@@ -1445,8 +1445,8 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G51" sqref="G51:G52"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1460,7 +1460,7 @@
         <v>346</v>
       </c>
       <c r="B1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -1868,7 +1868,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -1876,7 +1876,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -1884,7 +1884,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -1892,7 +1892,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -1900,7 +1900,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -1908,7 +1908,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -1916,7 +1916,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -1924,7 +1924,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -1932,7 +1932,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -1940,7 +1940,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -2028,7 +2028,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -2036,7 +2036,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -2044,7 +2044,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -2052,7 +2052,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -2060,7 +2060,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -2068,7 +2068,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -2076,7 +2076,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -2084,7 +2084,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -2092,7 +2092,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -2100,7 +2100,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -2108,7 +2108,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -2116,7 +2116,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -2124,7 +2124,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -2132,7 +2132,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -2140,7 +2140,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -2148,7 +2148,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -2156,7 +2156,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -2164,7 +2164,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -2172,7 +2172,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -2180,7 +2180,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -2188,7 +2188,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -2196,7 +2196,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -2204,7 +2204,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -2212,7 +2212,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -2288,7 +2288,7 @@
         <v>346</v>
       </c>
       <c r="B1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -2728,7 +2728,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -2736,7 +2736,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -2744,7 +2744,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -2752,7 +2752,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -2760,7 +2760,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -2768,7 +2768,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -2776,7 +2776,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -2784,7 +2784,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -2792,7 +2792,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -2800,7 +2800,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -3116,7 +3116,7 @@
         <v>346</v>
       </c>
       <c r="B1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -3244,7 +3244,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -3252,7 +3252,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -3260,7 +3260,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -3268,7 +3268,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -3276,7 +3276,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -3284,7 +3284,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -3292,7 +3292,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -3660,7 +3660,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -3668,7 +3668,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -3676,7 +3676,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -3684,7 +3684,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -3692,7 +3692,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -3796,7 +3796,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -3804,7 +3804,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -3812,7 +3812,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -3944,7 +3944,7 @@
         <v>346</v>
       </c>
       <c r="B1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -4272,7 +4272,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -4280,7 +4280,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -4288,7 +4288,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -4296,7 +4296,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -4304,7 +4304,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -4312,7 +4312,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -4320,7 +4320,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -4328,7 +4328,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -4336,7 +4336,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -4344,7 +4344,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -4352,7 +4352,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -4360,7 +4360,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -4368,7 +4368,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -4376,7 +4376,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -4384,7 +4384,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -4392,7 +4392,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -4400,7 +4400,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -4648,7 +4648,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -4656,7 +4656,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -4664,7 +4664,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -4672,7 +4672,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -4680,7 +4680,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -4771,7 +4771,7 @@
         <v>346</v>
       </c>
       <c r="B1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -4779,7 +4779,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -4787,7 +4787,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -4795,7 +4795,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -4803,7 +4803,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -4811,7 +4811,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -4819,7 +4819,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -4827,7 +4827,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -4835,7 +4835,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -4843,7 +4843,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -4851,7 +4851,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -4859,7 +4859,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -4867,7 +4867,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -4875,7 +4875,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -4883,7 +4883,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -4891,7 +4891,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -4899,7 +4899,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -4907,7 +4907,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -4915,7 +4915,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -4923,7 +4923,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -4931,7 +4931,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -4939,7 +4939,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -4947,7 +4947,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -4955,7 +4955,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -4963,7 +4963,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -4971,7 +4971,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -4979,7 +4979,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -4987,7 +4987,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -4995,7 +4995,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -5003,7 +5003,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -5011,7 +5011,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -5339,7 +5339,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -5347,7 +5347,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -5355,7 +5355,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -5363,7 +5363,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -5371,7 +5371,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -5379,7 +5379,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -5387,7 +5387,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -5395,7 +5395,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -5403,7 +5403,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -5411,7 +5411,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -5419,7 +5419,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -5427,7 +5427,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -5435,7 +5435,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -5443,7 +5443,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -5451,7 +5451,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -5599,7 +5599,7 @@
         <v>346</v>
       </c>
       <c r="B1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -6427,7 +6427,7 @@
         <v>346</v>
       </c>
       <c r="B1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -6915,7 +6915,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -6987,7 +6987,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -7255,7 +7255,7 @@
         <v>346</v>
       </c>
       <c r="B1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -8083,7 +8083,7 @@
         <v>346</v>
       </c>
       <c r="B1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -8324,7 +8324,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -8332,7 +8332,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -8340,7 +8340,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">

--- a/magic_item_tables.xlsx
+++ b/magic_item_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dave_\Documents\DND tool\dnd_random_generation_tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD663345-9C6F-4784-8EF5-0FAD35DAC608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF039F40-9239-4AF7-B97E-8F62C9D3A932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12990" yWindow="3590" windowWidth="20820" windowHeight="17410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="16230" windowWidth="25440" windowHeight="15390" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table A" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="361">
   <si>
     <t>Potion of Healing</t>
   </si>
@@ -261,9 +261,6 @@
   </si>
   <si>
     <t>Potion of storm giant strength</t>
-  </si>
-  <si>
-    <t>Poti on of supreme healing</t>
   </si>
   <si>
     <t>Universal solvent</t>
@@ -1444,9 +1441,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1457,10 +1454,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -1868,7 +1865,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -1876,7 +1873,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -1884,7 +1881,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -1892,7 +1889,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -1900,7 +1897,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -1908,7 +1905,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -1916,7 +1913,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -1924,7 +1921,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -1932,7 +1929,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -1940,7 +1937,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -2028,7 +2025,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -2036,7 +2033,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -2044,7 +2041,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -2052,7 +2049,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -2060,7 +2057,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -2068,7 +2065,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -2076,7 +2073,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -2084,7 +2081,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -2092,7 +2089,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -2100,7 +2097,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -2108,7 +2105,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -2116,7 +2113,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -2124,7 +2121,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -2132,7 +2129,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -2140,7 +2137,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -2148,7 +2145,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -2156,7 +2153,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -2164,7 +2161,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -2172,7 +2169,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -2180,7 +2177,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -2188,7 +2185,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -2196,7 +2193,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -2204,7 +2201,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -2212,7 +2209,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -2273,8 +2270,8 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2285,10 +2282,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -2728,7 +2725,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -2736,7 +2733,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -2744,7 +2741,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -2752,7 +2749,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -2760,7 +2757,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -2768,7 +2765,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -2776,7 +2773,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -2784,7 +2781,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -2792,7 +2789,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -2800,7 +2797,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -3102,7 +3099,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3113,10 +3110,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -3244,7 +3241,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -3252,7 +3249,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -3260,7 +3257,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -3268,7 +3265,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -3276,7 +3273,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -3284,7 +3281,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -3292,7 +3289,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -3660,7 +3657,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -3668,7 +3665,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -3676,7 +3673,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -3684,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -3692,7 +3689,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -3796,7 +3793,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -3804,7 +3801,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -3812,7 +3809,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -3929,8 +3926,8 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3941,10 +3938,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -4272,7 +4269,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -4280,7 +4277,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -4288,7 +4285,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -4296,7 +4293,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -4304,7 +4301,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -4312,7 +4309,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -4320,7 +4317,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -4328,7 +4325,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -4336,7 +4333,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -4344,7 +4341,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -4352,7 +4349,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -4360,7 +4357,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -4368,7 +4365,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -4376,7 +4373,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -4384,7 +4381,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -4392,7 +4389,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -4400,7 +4397,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -4648,7 +4645,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -4656,7 +4653,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -4664,7 +4661,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -4672,7 +4669,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -4680,7 +4677,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -4756,8 +4753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4768,10 +4765,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -4779,7 +4776,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -4787,7 +4784,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -4795,7 +4792,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -4803,7 +4800,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -4811,7 +4808,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -4819,7 +4816,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -4827,7 +4824,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -4835,7 +4832,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -4843,7 +4840,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -4851,7 +4848,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -4859,7 +4856,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -4867,7 +4864,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -4875,7 +4872,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -4883,7 +4880,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -4891,7 +4888,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -4899,7 +4896,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -4907,7 +4904,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -4915,7 +4912,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -4923,7 +4920,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -4931,7 +4928,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -4939,7 +4936,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -4947,7 +4944,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -4955,7 +4952,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -4963,7 +4960,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -4971,7 +4968,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -4979,7 +4976,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -4987,7 +4984,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -4995,7 +4992,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -5003,7 +5000,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -5011,7 +5008,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -5219,7 +5216,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -5227,7 +5224,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -5235,7 +5232,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -5243,7 +5240,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -5251,7 +5248,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -5259,7 +5256,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -5267,7 +5264,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -5275,7 +5272,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -5283,7 +5280,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -5291,7 +5288,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -5299,7 +5296,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -5307,7 +5304,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -5315,7 +5312,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -5323,7 +5320,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -5331,7 +5328,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -5339,7 +5336,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -5347,7 +5344,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -5355,7 +5352,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -5363,7 +5360,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -5371,7 +5368,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -5379,7 +5376,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -5387,7 +5384,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -5395,7 +5392,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -5403,7 +5400,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -5411,7 +5408,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -5419,7 +5416,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -5427,7 +5424,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -5435,7 +5432,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -5443,7 +5440,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -5451,7 +5448,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -5459,7 +5456,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -5467,7 +5464,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -5475,7 +5472,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -5483,7 +5480,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -5491,7 +5488,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -5499,7 +5496,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -5507,7 +5504,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -5515,7 +5512,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -5523,7 +5520,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -5531,7 +5528,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -5539,7 +5536,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -5547,7 +5544,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -5555,7 +5552,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -5563,7 +5560,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -5571,7 +5568,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -5584,8 +5581,8 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5596,10 +5593,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -5607,7 +5604,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -5615,7 +5612,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -5623,7 +5620,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -5631,7 +5628,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -5639,7 +5636,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -5647,7 +5644,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -5655,7 +5652,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -5663,7 +5660,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -5671,7 +5668,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -5679,7 +5676,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -5687,7 +5684,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -5695,7 +5692,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -5703,7 +5700,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -5711,7 +5708,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -5719,7 +5716,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -5727,7 +5724,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -5735,7 +5732,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -5743,7 +5740,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5751,7 +5748,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -5759,7 +5756,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -5767,7 +5764,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -5775,7 +5772,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -5783,7 +5780,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -5791,7 +5788,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -5799,7 +5796,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -5807,7 +5804,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -5815,7 +5812,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -5823,7 +5820,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -5831,7 +5828,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -5839,7 +5836,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -5847,7 +5844,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -5855,7 +5852,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -5863,7 +5860,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -5871,7 +5868,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -5879,7 +5876,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -5887,7 +5884,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -5895,7 +5892,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -5903,7 +5900,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -5911,7 +5908,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -5919,7 +5916,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -5927,7 +5924,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -5935,7 +5932,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -5943,7 +5940,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -5951,7 +5948,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -5959,7 +5956,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -5967,7 +5964,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -5975,7 +5972,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -5983,7 +5980,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -5991,7 +5988,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -5999,7 +5996,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -6007,7 +6004,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -6015,7 +6012,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -6023,7 +6020,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -6031,7 +6028,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -6039,7 +6036,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -6047,7 +6044,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -6055,7 +6052,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -6063,7 +6060,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -6071,7 +6068,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -6079,7 +6076,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -6087,7 +6084,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -6095,7 +6092,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -6103,7 +6100,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -6111,7 +6108,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -6119,7 +6116,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -6127,7 +6124,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -6135,7 +6132,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -6143,7 +6140,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -6151,7 +6148,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -6159,7 +6156,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -6167,7 +6164,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -6175,7 +6172,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -6183,7 +6180,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -6191,7 +6188,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -6199,7 +6196,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -6207,7 +6204,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -6215,7 +6212,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -6223,7 +6220,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -6231,7 +6228,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -6239,7 +6236,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -6247,7 +6244,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -6255,7 +6252,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -6263,7 +6260,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -6271,7 +6268,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -6279,7 +6276,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -6287,7 +6284,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -6295,7 +6292,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -6303,7 +6300,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -6311,7 +6308,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -6319,7 +6316,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -6327,7 +6324,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -6335,7 +6332,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -6343,7 +6340,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -6351,7 +6348,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -6359,7 +6356,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -6367,7 +6364,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -6375,7 +6372,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -6383,7 +6380,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -6391,7 +6388,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -6399,7 +6396,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -6412,8 +6409,8 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6424,10 +6421,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -6435,7 +6432,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -6443,7 +6440,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -6451,7 +6448,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -6459,7 +6456,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -6467,7 +6464,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -6475,7 +6472,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -6483,7 +6480,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -6491,7 +6488,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -6499,7 +6496,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -6507,7 +6504,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -6515,7 +6512,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -6523,7 +6520,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -6531,7 +6528,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -6539,7 +6536,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -6547,7 +6544,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -6555,7 +6552,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -6563,7 +6560,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -6571,7 +6568,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -6579,7 +6576,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -6587,7 +6584,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -6595,7 +6592,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -6603,7 +6600,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -6611,7 +6608,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -6619,7 +6616,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -6627,7 +6624,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -6635,7 +6632,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -6643,7 +6640,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -6651,7 +6648,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -6659,7 +6656,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -6667,7 +6664,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -6675,7 +6672,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -6683,7 +6680,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -6691,7 +6688,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -6699,7 +6696,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -6707,7 +6704,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -6715,7 +6712,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -6723,7 +6720,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -6731,7 +6728,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -6739,7 +6736,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -6747,7 +6744,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -6755,7 +6752,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -6763,7 +6760,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -6771,7 +6768,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -6779,7 +6776,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -6787,7 +6784,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -6795,7 +6792,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -6803,7 +6800,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -6811,7 +6808,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -6819,7 +6816,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -6827,7 +6824,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -6835,7 +6832,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -6843,7 +6840,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -6851,7 +6848,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -6859,7 +6856,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -6867,7 +6864,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -6875,7 +6872,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -6883,7 +6880,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -6891,7 +6888,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -6899,7 +6896,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -6907,7 +6904,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -6915,7 +6912,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -6923,7 +6920,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -6931,7 +6928,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -6939,7 +6936,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -6947,7 +6944,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -6955,7 +6952,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -6963,7 +6960,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -6971,7 +6968,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -6979,7 +6976,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -6987,7 +6984,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -6995,7 +6992,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -7003,7 +7000,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -7011,7 +7008,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -7019,7 +7016,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -7027,7 +7024,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -7035,7 +7032,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -7043,7 +7040,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -7051,7 +7048,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -7059,7 +7056,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -7067,7 +7064,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -7075,7 +7072,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -7083,7 +7080,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -7091,7 +7088,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -7099,7 +7096,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -7107,7 +7104,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -7115,7 +7112,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -7123,7 +7120,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -7131,7 +7128,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -7139,7 +7136,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -7147,7 +7144,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -7155,7 +7152,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -7163,7 +7160,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -7171,7 +7168,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -7179,7 +7176,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -7187,7 +7184,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -7195,7 +7192,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -7203,7 +7200,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -7211,7 +7208,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -7219,7 +7216,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -7227,7 +7224,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -7240,8 +7237,8 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7252,10 +7249,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -7263,7 +7260,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -7271,7 +7268,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -7279,7 +7276,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -7287,7 +7284,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -7295,7 +7292,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -7303,7 +7300,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -7311,7 +7308,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -7319,7 +7316,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -7327,7 +7324,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -7335,7 +7332,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -7343,7 +7340,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -7351,7 +7348,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -7359,7 +7356,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -7367,7 +7364,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -7375,7 +7372,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -7383,7 +7380,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -7391,7 +7388,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -7399,7 +7396,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -7407,7 +7404,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -7415,7 +7412,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -7423,7 +7420,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -7431,7 +7428,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -7439,7 +7436,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -7447,7 +7444,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -7455,7 +7452,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -7463,7 +7460,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -7471,7 +7468,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -7479,7 +7476,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -7487,7 +7484,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -7495,7 +7492,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -7503,7 +7500,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -7511,7 +7508,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -7519,7 +7516,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -7527,7 +7524,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -7535,7 +7532,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -7543,7 +7540,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -7551,7 +7548,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -7559,7 +7556,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -7567,7 +7564,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -7575,7 +7572,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -7583,7 +7580,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -7591,7 +7588,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -7599,7 +7596,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -7607,7 +7604,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -7615,7 +7612,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -7623,7 +7620,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -7631,7 +7628,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -7639,7 +7636,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -7647,7 +7644,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -7655,7 +7652,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -7663,7 +7660,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -7671,7 +7668,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -7679,7 +7676,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -7687,7 +7684,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -7695,7 +7692,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -7703,7 +7700,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -7711,7 +7708,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -7719,7 +7716,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -7727,7 +7724,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -7735,7 +7732,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -7743,7 +7740,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -7751,7 +7748,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -7759,7 +7756,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -7767,7 +7764,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -7775,7 +7772,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -7783,7 +7780,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -7791,7 +7788,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -7799,7 +7796,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -7807,7 +7804,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -7815,7 +7812,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -7823,7 +7820,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -7831,7 +7828,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -7839,7 +7836,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -7847,7 +7844,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -7855,7 +7852,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -7863,7 +7860,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -7871,7 +7868,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -7879,7 +7876,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -7887,7 +7884,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -7895,7 +7892,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -7903,7 +7900,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -7911,7 +7908,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -7919,7 +7916,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -7927,7 +7924,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -7935,7 +7932,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -7943,7 +7940,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -7951,7 +7948,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -7959,7 +7956,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -7967,7 +7964,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -7975,7 +7972,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -7983,7 +7980,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -7991,7 +7988,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -7999,7 +7996,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -8007,7 +8004,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -8015,7 +8012,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -8023,7 +8020,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -8031,7 +8028,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -8039,7 +8036,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -8047,7 +8044,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -8055,7 +8052,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -8065,11 +8062,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8080,10 +8077,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -8091,7 +8088,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -8099,7 +8096,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -8107,7 +8104,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -8115,7 +8112,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -8123,7 +8120,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -8131,7 +8128,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -8139,7 +8136,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -8147,7 +8144,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -8155,7 +8152,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -8163,7 +8160,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -8171,7 +8168,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -8179,7 +8176,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -8187,7 +8184,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -8195,7 +8192,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -8203,136 +8200,135 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -8340,7 +8336,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -8348,7 +8344,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -8356,7 +8352,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -8364,7 +8360,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -8372,7 +8368,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -8380,7 +8376,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -8388,7 +8384,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -8396,7 +8392,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -8404,7 +8400,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -8412,7 +8408,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -8420,7 +8416,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -8428,7 +8424,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -8436,7 +8432,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -8444,7 +8440,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -8452,7 +8448,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -8460,7 +8456,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -8468,7 +8464,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -8476,7 +8472,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -8484,7 +8480,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -8492,7 +8488,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -8500,7 +8496,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -8508,7 +8504,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -8516,7 +8512,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -8524,7 +8520,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -8532,7 +8528,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -8540,7 +8536,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -8548,7 +8544,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -8556,7 +8552,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -8564,7 +8560,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -8572,7 +8568,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -8580,7 +8576,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -8588,7 +8584,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -8596,7 +8592,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -8604,7 +8600,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -8612,7 +8608,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -8620,7 +8616,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -8628,7 +8624,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -8636,7 +8632,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -8644,7 +8640,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -8652,7 +8648,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -8660,7 +8656,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -8668,7 +8664,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -8676,7 +8672,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -8684,7 +8680,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -8692,7 +8688,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -8700,7 +8696,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -8708,7 +8704,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -8716,7 +8712,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -8724,7 +8720,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -8732,7 +8728,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -8740,7 +8736,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -8748,7 +8744,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -8756,7 +8752,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -8764,7 +8760,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -8772,7 +8768,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -8780,7 +8776,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -8788,7 +8784,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -8796,7 +8792,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -8804,7 +8800,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -8812,7 +8808,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -8820,7 +8816,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -8828,7 +8824,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -8836,7 +8832,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -8844,7 +8840,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -8852,7 +8848,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -8860,7 +8856,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -8868,7 +8864,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -8876,7 +8872,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -8884,7 +8880,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/magic_item_tables.xlsx
+++ b/magic_item_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dave_\Documents\DND tool\dnd_random_generation_tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF039F40-9239-4AF7-B97E-8F62C9D3A932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94810FF8-C797-4DBF-8F96-EF18F22DF47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="16230" windowWidth="25440" windowHeight="15390" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="16230" windowWidth="25440" windowHeight="15390" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table A" sheetId="1" r:id="rId1"/>
@@ -977,9 +977,6 @@
     <t>Helm of brilliance</t>
   </si>
   <si>
-    <t>Horn ofValhalla (bronze)</t>
-  </si>
-  <si>
     <t>Instrument of the bards (Anstruthharp)</t>
   </si>
   <si>
@@ -1116,6 +1113,9 @@
   </si>
   <si>
     <t>Spell Scroll (Cantrip)</t>
+  </si>
+  <si>
+    <t>Horn of Valhalla (bronze)</t>
   </si>
 </sst>
 </file>
@@ -1442,7 +1442,7 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -1454,10 +1454,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -1865,7 +1865,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -1873,7 +1873,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -1881,7 +1881,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -1889,7 +1889,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -1897,7 +1897,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -1905,7 +1905,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -1913,7 +1913,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -1921,7 +1921,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -1929,7 +1929,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -1937,7 +1937,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -2025,7 +2025,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -2033,7 +2033,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -2041,7 +2041,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -2049,7 +2049,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -2057,7 +2057,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -2065,7 +2065,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -2073,7 +2073,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -2081,7 +2081,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -2089,7 +2089,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -2097,7 +2097,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -2105,7 +2105,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -2113,7 +2113,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -2121,7 +2121,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -2129,7 +2129,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -2137,7 +2137,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -2145,7 +2145,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -2153,7 +2153,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -2161,7 +2161,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -2169,7 +2169,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -2177,7 +2177,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -2185,7 +2185,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -2193,7 +2193,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -2201,7 +2201,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -2209,7 +2209,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -2270,7 +2270,7 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -2282,10 +2282,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -2725,7 +2725,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -2733,7 +2733,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -2741,7 +2741,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -2749,7 +2749,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -2757,7 +2757,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -2765,7 +2765,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -2773,7 +2773,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -2781,7 +2781,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -2789,7 +2789,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -2797,7 +2797,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -3098,7 +3098,7 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -3110,10 +3110,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -3241,7 +3241,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -3249,7 +3249,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -3257,7 +3257,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -3265,7 +3265,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -3273,7 +3273,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -3281,7 +3281,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -3289,7 +3289,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -3657,7 +3657,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -3665,7 +3665,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -3673,7 +3673,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -3689,7 +3689,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -3793,7 +3793,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -3801,7 +3801,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -3809,7 +3809,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -3926,7 +3926,7 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -3938,10 +3938,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -4269,7 +4269,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -4277,7 +4277,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -4285,7 +4285,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -4293,7 +4293,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -4301,7 +4301,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -4309,7 +4309,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -4317,7 +4317,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -4325,7 +4325,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -4333,7 +4333,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -4341,7 +4341,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -4349,7 +4349,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -4357,7 +4357,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -4365,7 +4365,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -4373,7 +4373,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -4381,7 +4381,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -4389,7 +4389,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -4397,7 +4397,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -4645,7 +4645,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -4653,7 +4653,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -4661,7 +4661,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -4669,7 +4669,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -4677,7 +4677,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -4753,7 +4753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
@@ -4765,10 +4765,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -4776,7 +4776,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -4784,7 +4784,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -4792,7 +4792,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -4800,7 +4800,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -4808,7 +4808,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -4816,7 +4816,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -4824,7 +4824,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -4832,7 +4832,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -4840,7 +4840,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -4848,7 +4848,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -4856,7 +4856,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -4864,7 +4864,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -4872,7 +4872,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -4880,7 +4880,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -4888,7 +4888,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -4896,7 +4896,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -4904,7 +4904,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -4912,7 +4912,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -4920,7 +4920,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -4928,7 +4928,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -4936,7 +4936,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -4944,7 +4944,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -4952,7 +4952,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -4960,7 +4960,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -4968,7 +4968,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -4976,7 +4976,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -4984,7 +4984,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -4992,7 +4992,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -5000,7 +5000,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -5008,7 +5008,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -5336,7 +5336,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -5344,7 +5344,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -5352,7 +5352,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -5360,7 +5360,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -5368,7 +5368,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -5376,7 +5376,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -5384,7 +5384,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -5392,7 +5392,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -5400,7 +5400,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -5408,7 +5408,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -5416,7 +5416,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -5424,7 +5424,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -5432,7 +5432,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -5440,7 +5440,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -5448,7 +5448,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -5581,8 +5581,8 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:D1048576"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5593,10 +5593,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -5724,7 +5724,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -5732,7 +5732,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -5740,7 +5740,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5964,7 +5964,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -5972,7 +5972,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -6076,7 +6076,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -6084,7 +6084,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -6409,8 +6409,8 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:D1048576"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6421,10 +6421,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -6520,7 +6520,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -6528,7 +6528,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -6536,7 +6536,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -6912,7 +6912,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -6984,7 +6984,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -7236,9 +7236,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7249,10 +7249,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -7852,7 +7852,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -7860,7 +7860,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -7868,7 +7868,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -7876,7 +7876,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -7884,7 +7884,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -7892,7 +7892,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -7900,7 +7900,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -7908,7 +7908,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -7916,7 +7916,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -7924,7 +7924,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -7932,7 +7932,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -7940,7 +7940,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -7948,7 +7948,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -7956,7 +7956,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -7964,7 +7964,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -7972,7 +7972,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -7980,7 +7980,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -7988,7 +7988,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -7996,7 +7996,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -8004,7 +8004,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -8012,7 +8012,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -8020,7 +8020,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -8028,7 +8028,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -8036,7 +8036,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -8044,7 +8044,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -8052,7 +8052,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -8077,10 +8077,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -8320,7 +8320,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -8328,7 +8328,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -8336,7 +8336,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -8368,7 +8368,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -8376,7 +8376,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -8384,7 +8384,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">

--- a/magic_item_tables.xlsx
+++ b/magic_item_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dave_\Documents\DND tool\dnd_random_generation_tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94810FF8-C797-4DBF-8F96-EF18F22DF47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D69DAD-DBB3-4B44-A5BE-69C2D0CC5C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="16230" windowWidth="25440" windowHeight="15390" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table A" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>Potion of resistance</t>
   </si>
   <si>
-    <t>Ammunition +1</t>
-  </si>
-  <si>
     <t>Potion of animal friendship</t>
   </si>
   <si>
@@ -1116,6 +1113,9 @@
   </si>
   <si>
     <t>Horn of Valhalla (bronze)</t>
+  </si>
+  <si>
+    <t>Ammunition, +1</t>
   </si>
 </sst>
 </file>
@@ -1441,9 +1441,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1454,10 +1454,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -1865,7 +1865,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -1873,7 +1873,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -1881,7 +1881,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -1889,7 +1889,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -1897,7 +1897,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -1905,7 +1905,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -1913,7 +1913,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -1921,7 +1921,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -1929,7 +1929,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -1937,7 +1937,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -2025,7 +2025,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -2033,7 +2033,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -2041,7 +2041,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -2049,7 +2049,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -2057,7 +2057,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -2065,7 +2065,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -2073,7 +2073,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -2081,7 +2081,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -2089,7 +2089,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -2097,7 +2097,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -2105,7 +2105,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -2113,7 +2113,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -2121,7 +2121,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -2129,7 +2129,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -2137,7 +2137,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -2145,7 +2145,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -2153,7 +2153,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -2161,7 +2161,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -2169,7 +2169,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -2177,7 +2177,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -2185,7 +2185,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -2193,7 +2193,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -2201,7 +2201,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -2209,7 +2209,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -2270,8 +2270,8 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:D1048576"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2282,10 +2282,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -2525,7 +2525,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>360</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -2533,7 +2533,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>360</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -2541,7 +2541,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>360</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -2549,7 +2549,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>360</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -2557,7 +2557,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>360</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -2565,7 +2565,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -2573,7 +2573,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -2581,7 +2581,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -2589,7 +2589,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -2597,7 +2597,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -2605,7 +2605,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -2613,7 +2613,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -2621,7 +2621,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -2629,7 +2629,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -2637,7 +2637,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -2645,7 +2645,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -2653,7 +2653,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -2661,7 +2661,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -2669,7 +2669,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -2677,7 +2677,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -2685,7 +2685,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -2693,7 +2693,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -2701,7 +2701,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -2709,7 +2709,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -2717,7 +2717,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -2725,7 +2725,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -2733,7 +2733,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -2741,7 +2741,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -2749,7 +2749,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -2757,7 +2757,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -2765,7 +2765,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -2773,7 +2773,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -2781,7 +2781,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -2789,7 +2789,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -2797,7 +2797,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -2805,7 +2805,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -2813,7 +2813,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -2821,7 +2821,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -2829,7 +2829,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -2837,7 +2837,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -2845,7 +2845,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -2853,7 +2853,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -2861,7 +2861,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -2869,7 +2869,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -2877,7 +2877,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -2885,7 +2885,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -2893,7 +2893,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -2901,7 +2901,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -2909,7 +2909,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -2917,7 +2917,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -2925,7 +2925,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -2933,7 +2933,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -2941,7 +2941,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -2949,7 +2949,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -2957,7 +2957,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -2965,7 +2965,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -2973,7 +2973,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -2981,7 +2981,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -2989,7 +2989,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2997,7 +2997,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -3005,7 +3005,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -3013,7 +3013,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -3021,7 +3021,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -3029,7 +3029,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -3037,7 +3037,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -3045,7 +3045,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -3053,7 +3053,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -3061,7 +3061,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -3069,7 +3069,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -3077,7 +3077,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -3085,7 +3085,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3098,7 +3098,7 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -3110,10 +3110,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -3121,7 +3121,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3129,7 +3129,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -3137,7 +3137,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -3145,7 +3145,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -3153,7 +3153,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -3161,7 +3161,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -3169,7 +3169,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -3177,7 +3177,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -3185,7 +3185,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -3193,7 +3193,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -3201,7 +3201,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -3209,7 +3209,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -3217,7 +3217,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -3225,7 +3225,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -3233,7 +3233,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -3241,7 +3241,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -3249,7 +3249,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -3257,7 +3257,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -3265,7 +3265,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -3273,7 +3273,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -3281,7 +3281,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -3289,7 +3289,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -3297,7 +3297,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -3305,7 +3305,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -3313,7 +3313,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -3321,7 +3321,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -3329,7 +3329,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -3337,7 +3337,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -3345,7 +3345,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -3353,7 +3353,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -3361,7 +3361,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -3369,7 +3369,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -3377,7 +3377,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -3385,7 +3385,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -3393,7 +3393,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -3401,7 +3401,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -3409,7 +3409,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -3417,7 +3417,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -3425,7 +3425,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -3433,7 +3433,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -3441,7 +3441,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -3449,7 +3449,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -3457,7 +3457,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -3465,7 +3465,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -3473,7 +3473,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -3481,7 +3481,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -3489,7 +3489,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -3497,7 +3497,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -3505,7 +3505,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -3513,7 +3513,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -3521,7 +3521,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -3529,7 +3529,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -3537,7 +3537,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -3545,7 +3545,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -3553,7 +3553,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -3561,7 +3561,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -3569,7 +3569,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -3577,7 +3577,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -3585,7 +3585,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -3593,7 +3593,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -3601,7 +3601,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -3609,7 +3609,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -3617,7 +3617,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -3625,7 +3625,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -3633,7 +3633,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -3641,7 +3641,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -3649,7 +3649,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -3657,7 +3657,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -3665,7 +3665,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -3673,7 +3673,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -3689,7 +3689,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -3697,7 +3697,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -3705,7 +3705,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -3713,7 +3713,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -3721,7 +3721,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -3729,7 +3729,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -3737,7 +3737,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -3745,7 +3745,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -3753,7 +3753,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -3761,7 +3761,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -3769,7 +3769,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -3777,7 +3777,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -3785,7 +3785,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -3793,7 +3793,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -3801,7 +3801,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -3809,7 +3809,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -3817,7 +3817,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -3825,7 +3825,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -3833,7 +3833,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -3841,7 +3841,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -3849,7 +3849,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -3857,7 +3857,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -3865,7 +3865,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -3873,7 +3873,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -3881,7 +3881,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -3889,7 +3889,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -3897,7 +3897,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -3905,7 +3905,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -3913,7 +3913,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3926,8 +3926,8 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:D1048576"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3938,10 +3938,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -3949,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3957,7 +3957,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -3965,7 +3965,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -3973,7 +3973,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -3981,7 +3981,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -3989,7 +3989,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -3997,7 +3997,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -4005,7 +4005,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -4013,7 +4013,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -4021,7 +4021,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -4029,7 +4029,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -4037,7 +4037,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -4045,7 +4045,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -4053,7 +4053,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -4061,7 +4061,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -4069,7 +4069,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -4077,7 +4077,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -4085,7 +4085,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -4093,7 +4093,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -4101,7 +4101,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -4109,7 +4109,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -4117,7 +4117,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -4125,7 +4125,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -4133,7 +4133,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -4141,7 +4141,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -4149,7 +4149,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -4157,7 +4157,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -4165,7 +4165,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -4173,7 +4173,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -4181,7 +4181,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -4189,7 +4189,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -4197,7 +4197,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -4205,7 +4205,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -4213,7 +4213,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -4221,7 +4221,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -4229,7 +4229,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -4237,7 +4237,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -4245,7 +4245,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -4253,7 +4253,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -4261,7 +4261,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -4269,7 +4269,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -4277,7 +4277,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -4285,7 +4285,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -4293,7 +4293,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -4301,7 +4301,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -4309,7 +4309,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -4317,7 +4317,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -4325,7 +4325,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -4333,7 +4333,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -4341,7 +4341,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -4349,7 +4349,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -4357,7 +4357,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -4365,7 +4365,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -4373,7 +4373,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -4381,7 +4381,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -4389,7 +4389,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -4397,7 +4397,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -4405,7 +4405,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -4413,7 +4413,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -4421,7 +4421,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -4429,7 +4429,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -4437,7 +4437,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -4445,7 +4445,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -4453,7 +4453,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -4461,7 +4461,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -4469,7 +4469,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -4477,7 +4477,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -4485,7 +4485,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -4493,7 +4493,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -4501,7 +4501,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -4509,7 +4509,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -4517,7 +4517,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -4525,7 +4525,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -4533,7 +4533,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -4541,7 +4541,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -4549,7 +4549,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -4557,7 +4557,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -4565,7 +4565,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -4573,7 +4573,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -4581,7 +4581,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -4589,7 +4589,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -4597,7 +4597,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -4605,7 +4605,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -4613,7 +4613,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -4621,7 +4621,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -4629,7 +4629,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -4637,7 +4637,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -4645,7 +4645,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -4653,7 +4653,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -4661,7 +4661,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -4669,7 +4669,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -4677,7 +4677,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -4685,7 +4685,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -4693,7 +4693,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -4701,7 +4701,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -4709,7 +4709,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -4717,7 +4717,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -4725,7 +4725,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -4733,7 +4733,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -4741,7 +4741,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -4753,7 +4753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
@@ -4765,10 +4765,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -4776,7 +4776,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -4784,7 +4784,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -4792,7 +4792,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -4800,7 +4800,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -4808,7 +4808,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -4816,7 +4816,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -4824,7 +4824,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -4832,7 +4832,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -4840,7 +4840,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -4848,7 +4848,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -4856,7 +4856,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -4864,7 +4864,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -4872,7 +4872,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -4880,7 +4880,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -4888,7 +4888,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -4896,7 +4896,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -4904,7 +4904,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -4912,7 +4912,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -4920,7 +4920,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -4928,7 +4928,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -4936,7 +4936,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -4944,7 +4944,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -4952,7 +4952,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -4960,7 +4960,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -4968,7 +4968,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -4976,7 +4976,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -4984,7 +4984,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -4992,7 +4992,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -5000,7 +5000,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -5008,7 +5008,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -5016,7 +5016,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -5024,7 +5024,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -5032,7 +5032,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -5040,7 +5040,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -5048,7 +5048,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -5056,7 +5056,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -5064,7 +5064,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -5072,7 +5072,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -5080,7 +5080,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -5088,7 +5088,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -5096,7 +5096,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -5104,7 +5104,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -5112,7 +5112,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -5120,7 +5120,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -5128,7 +5128,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -5136,7 +5136,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -5144,7 +5144,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -5152,7 +5152,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -5160,7 +5160,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -5168,7 +5168,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -5176,7 +5176,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -5184,7 +5184,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -5192,7 +5192,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -5200,7 +5200,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -5208,7 +5208,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -5216,7 +5216,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -5224,7 +5224,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -5232,7 +5232,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -5240,7 +5240,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -5248,7 +5248,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -5256,7 +5256,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -5264,7 +5264,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -5272,7 +5272,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -5280,7 +5280,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -5288,7 +5288,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -5296,7 +5296,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -5304,7 +5304,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -5312,7 +5312,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -5320,7 +5320,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -5328,7 +5328,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -5336,7 +5336,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -5344,7 +5344,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -5352,7 +5352,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -5360,7 +5360,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -5368,7 +5368,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -5376,7 +5376,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -5384,7 +5384,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -5392,7 +5392,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -5400,7 +5400,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -5408,7 +5408,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -5416,7 +5416,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -5424,7 +5424,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -5432,7 +5432,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -5440,7 +5440,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -5448,7 +5448,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -5456,7 +5456,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -5464,7 +5464,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -5472,7 +5472,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -5480,7 +5480,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -5488,7 +5488,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -5496,7 +5496,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -5504,7 +5504,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -5512,7 +5512,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -5520,7 +5520,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -5528,7 +5528,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -5536,7 +5536,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -5544,7 +5544,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -5552,7 +5552,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -5560,7 +5560,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -5568,7 +5568,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -5581,7 +5581,7 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
@@ -5593,10 +5593,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -5604,7 +5604,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -5612,7 +5612,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -5620,7 +5620,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -5628,7 +5628,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -5636,7 +5636,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -5644,7 +5644,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -5652,7 +5652,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -5660,7 +5660,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -5668,7 +5668,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -5676,7 +5676,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -5684,7 +5684,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -5692,7 +5692,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -5700,7 +5700,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -5708,7 +5708,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -5716,7 +5716,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -5724,7 +5724,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -5732,7 +5732,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -5740,7 +5740,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5748,7 +5748,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -5756,7 +5756,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -5764,7 +5764,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -5772,7 +5772,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -5780,7 +5780,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -5788,7 +5788,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -5796,7 +5796,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -5804,7 +5804,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -5812,7 +5812,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -5820,7 +5820,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -5828,7 +5828,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -5836,7 +5836,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -5844,7 +5844,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -5852,7 +5852,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -5860,7 +5860,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -5868,7 +5868,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -5876,7 +5876,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -5884,7 +5884,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -5892,7 +5892,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -5900,7 +5900,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -5908,7 +5908,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -5916,7 +5916,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -5924,7 +5924,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -5932,7 +5932,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -5940,7 +5940,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -5948,7 +5948,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -5956,7 +5956,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -5964,7 +5964,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -5972,7 +5972,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -5980,7 +5980,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -5988,7 +5988,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -5996,7 +5996,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -6004,7 +6004,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -6012,7 +6012,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -6020,7 +6020,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -6028,7 +6028,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -6036,7 +6036,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -6044,7 +6044,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -6052,7 +6052,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -6060,7 +6060,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -6068,7 +6068,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -6076,7 +6076,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -6084,7 +6084,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -6092,7 +6092,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -6100,7 +6100,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -6108,7 +6108,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -6116,7 +6116,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -6124,7 +6124,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -6132,7 +6132,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -6140,7 +6140,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -6148,7 +6148,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -6156,7 +6156,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -6164,7 +6164,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -6172,7 +6172,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -6180,7 +6180,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -6188,7 +6188,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -6196,7 +6196,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -6204,7 +6204,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -6212,7 +6212,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -6220,7 +6220,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -6228,7 +6228,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -6236,7 +6236,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -6244,7 +6244,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -6252,7 +6252,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -6260,7 +6260,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -6268,7 +6268,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -6276,7 +6276,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -6284,7 +6284,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -6292,7 +6292,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -6300,7 +6300,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -6308,7 +6308,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -6316,7 +6316,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -6324,7 +6324,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -6332,7 +6332,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -6340,7 +6340,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -6348,7 +6348,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -6356,7 +6356,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -6364,7 +6364,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -6372,7 +6372,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -6380,7 +6380,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -6388,7 +6388,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -6396,7 +6396,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -6409,8 +6409,8 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6421,10 +6421,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -6432,7 +6432,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -6440,7 +6440,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -6448,7 +6448,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -6456,7 +6456,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -6464,7 +6464,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -6472,7 +6472,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -6480,7 +6480,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -6488,7 +6488,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -6496,7 +6496,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -6504,7 +6504,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -6512,7 +6512,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -6520,7 +6520,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -6528,7 +6528,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -6536,7 +6536,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -6544,7 +6544,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -6552,7 +6552,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -6560,7 +6560,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -6568,7 +6568,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -6576,7 +6576,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -6584,7 +6584,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -6592,7 +6592,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -6600,7 +6600,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -6608,7 +6608,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -6616,7 +6616,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -6624,7 +6624,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -6632,7 +6632,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -6640,7 +6640,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -6648,7 +6648,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -6656,7 +6656,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -6664,7 +6664,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -6672,7 +6672,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -6680,7 +6680,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -6688,7 +6688,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -6696,7 +6696,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -6704,7 +6704,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -6712,7 +6712,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -6720,7 +6720,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -6728,7 +6728,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -6736,7 +6736,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -6744,7 +6744,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -6752,7 +6752,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -6760,7 +6760,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -6768,7 +6768,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -6776,7 +6776,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -6784,7 +6784,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -6792,7 +6792,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -6800,7 +6800,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -6808,7 +6808,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -6816,7 +6816,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -6824,7 +6824,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -6832,7 +6832,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -6840,7 +6840,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -6848,7 +6848,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -6856,7 +6856,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -6864,7 +6864,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -6872,7 +6872,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -6880,7 +6880,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -6888,7 +6888,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -6896,7 +6896,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -6904,7 +6904,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -6912,7 +6912,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -6920,7 +6920,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -6928,7 +6928,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -6936,7 +6936,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -6944,7 +6944,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -6952,7 +6952,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -6960,7 +6960,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -6968,7 +6968,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -6976,7 +6976,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -6984,7 +6984,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -6992,7 +6992,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -7000,7 +7000,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -7008,7 +7008,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -7016,7 +7016,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -7024,7 +7024,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -7032,7 +7032,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -7040,7 +7040,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -7048,7 +7048,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -7056,7 +7056,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -7064,7 +7064,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -7072,7 +7072,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -7080,7 +7080,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -7088,7 +7088,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -7096,7 +7096,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -7104,7 +7104,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -7112,7 +7112,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -7120,7 +7120,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -7128,7 +7128,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -7136,7 +7136,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -7144,7 +7144,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -7152,7 +7152,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -7160,7 +7160,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -7168,7 +7168,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -7176,7 +7176,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -7184,7 +7184,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -7192,7 +7192,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -7200,7 +7200,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -7208,7 +7208,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -7216,7 +7216,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -7224,11 +7224,12 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7236,9 +7237,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7249,10 +7250,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -7260,7 +7261,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -7268,7 +7269,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -7276,7 +7277,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -7284,7 +7285,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -7292,7 +7293,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -7300,7 +7301,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -7308,7 +7309,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -7316,7 +7317,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -7324,7 +7325,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -7332,7 +7333,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -7340,7 +7341,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -7348,7 +7349,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -7356,7 +7357,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -7364,7 +7365,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -7372,7 +7373,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -7380,7 +7381,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -7388,7 +7389,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -7396,7 +7397,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -7404,7 +7405,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -7412,7 +7413,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -7420,7 +7421,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -7428,7 +7429,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -7436,7 +7437,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -7444,7 +7445,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -7452,7 +7453,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -7460,7 +7461,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -7468,7 +7469,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -7476,7 +7477,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -7484,7 +7485,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -7492,7 +7493,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -7500,7 +7501,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -7508,7 +7509,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -7516,7 +7517,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -7524,7 +7525,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -7532,7 +7533,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -7540,7 +7541,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -7548,7 +7549,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -7556,7 +7557,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -7564,7 +7565,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -7572,7 +7573,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -7580,7 +7581,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -7588,7 +7589,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -7596,7 +7597,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -7604,7 +7605,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -7612,7 +7613,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -7620,7 +7621,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -7628,7 +7629,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -7636,7 +7637,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -7644,7 +7645,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -7652,7 +7653,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -7660,7 +7661,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -7668,7 +7669,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -7676,7 +7677,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -7684,7 +7685,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -7692,7 +7693,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -7700,7 +7701,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -7708,7 +7709,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -7716,7 +7717,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -7724,7 +7725,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -7732,7 +7733,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -7740,7 +7741,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -7748,7 +7749,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -7756,7 +7757,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -7764,7 +7765,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -7772,7 +7773,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -7780,7 +7781,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -7788,7 +7789,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -7796,7 +7797,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -7804,7 +7805,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -7812,7 +7813,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -7820,7 +7821,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -7828,7 +7829,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -7836,7 +7837,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -7844,7 +7845,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -7852,7 +7853,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -7860,7 +7861,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -7868,7 +7869,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -7876,7 +7877,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -7884,7 +7885,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -7892,7 +7893,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -7900,7 +7901,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -7908,7 +7909,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -7916,7 +7917,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -7924,7 +7925,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -7932,7 +7933,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -7940,7 +7941,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -7948,7 +7949,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -7956,7 +7957,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -7964,7 +7965,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -7972,7 +7973,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -7980,7 +7981,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -7988,7 +7989,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -7996,7 +7997,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -8004,7 +8005,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -8012,7 +8013,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -8020,7 +8021,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -8028,7 +8029,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -8036,7 +8037,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -8044,7 +8045,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -8052,7 +8053,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -8065,8 +8066,8 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8077,10 +8078,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -8088,7 +8089,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -8096,7 +8097,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -8104,7 +8105,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -8112,7 +8113,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -8120,7 +8121,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -8128,7 +8129,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -8136,7 +8137,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -8144,7 +8145,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -8152,7 +8153,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -8160,7 +8161,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -8168,7 +8169,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -8176,7 +8177,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -8184,7 +8185,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -8192,7 +8193,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -8200,7 +8201,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -8208,7 +8209,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -8216,7 +8217,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -8224,7 +8225,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -8232,7 +8233,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -8240,7 +8241,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -8248,7 +8249,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -8256,7 +8257,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -8264,7 +8265,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -8272,7 +8273,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -8280,7 +8281,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -8288,7 +8289,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -8296,7 +8297,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -8304,7 +8305,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -8312,7 +8313,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -8320,7 +8321,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -8328,7 +8329,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -8336,7 +8337,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -8344,7 +8345,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -8352,7 +8353,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -8360,7 +8361,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -8368,7 +8369,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -8376,7 +8377,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -8384,7 +8385,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -8392,7 +8393,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -8400,7 +8401,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -8408,7 +8409,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -8416,7 +8417,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -8424,7 +8425,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -8432,7 +8433,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -8440,7 +8441,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -8448,7 +8449,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -8456,7 +8457,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -8464,7 +8465,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -8472,7 +8473,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -8480,7 +8481,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -8488,7 +8489,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -8496,7 +8497,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -8504,7 +8505,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -8512,7 +8513,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -8520,7 +8521,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -8528,7 +8529,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -8536,7 +8537,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -8544,7 +8545,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -8552,7 +8553,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -8560,7 +8561,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -8568,7 +8569,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -8576,7 +8577,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -8584,7 +8585,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -8592,7 +8593,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -8600,7 +8601,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -8608,7 +8609,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -8616,7 +8617,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -8624,7 +8625,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -8632,7 +8633,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -8640,7 +8641,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -8648,7 +8649,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -8656,7 +8657,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -8664,7 +8665,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -8672,7 +8673,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -8680,7 +8681,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -8688,7 +8689,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -8696,7 +8697,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -8704,7 +8705,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -8712,7 +8713,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -8720,7 +8721,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -8728,7 +8729,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -8736,7 +8737,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -8744,7 +8745,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -8752,7 +8753,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -8760,7 +8761,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -8768,7 +8769,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -8776,7 +8777,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -8784,7 +8785,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -8792,7 +8793,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -8800,7 +8801,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -8808,7 +8809,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -8816,7 +8817,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -8824,7 +8825,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -8832,7 +8833,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -8840,7 +8841,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -8848,7 +8849,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -8856,7 +8857,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -8864,7 +8865,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -8872,7 +8873,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -8880,7 +8881,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
